--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="64">
   <si>
     <t>モーション内容</t>
     <phoneticPr fontId="1"/>
@@ -245,6 +245,10 @@
   </si>
   <si>
     <t>プリースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -556,56 +560,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,53 +935,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>58</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -994,12 +997,12 @@
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1015,12 +1018,12 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1036,12 +1039,12 @@
       <c r="F5" s="2">
         <v>140</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1057,12 +1060,12 @@
       <c r="F6" s="2">
         <v>173</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1078,12 +1081,12 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1099,12 +1102,12 @@
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1120,12 +1123,12 @@
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1141,12 +1144,12 @@
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1162,12 +1165,12 @@
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1183,12 +1186,12 @@
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1204,12 +1207,12 @@
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1225,12 +1228,12 @@
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1246,12 +1249,12 @@
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1267,12 +1270,12 @@
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1288,12 +1291,12 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1309,12 +1312,12 @@
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1330,12 +1333,12 @@
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1351,12 +1354,12 @@
       <c r="F20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1372,12 +1375,12 @@
       <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1393,56 +1396,56 @@
       <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7">
+      <c r="A23" s="23"/>
+      <c r="B23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>939</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>967</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>943</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>950</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="12">
         <v>0</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="12">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="12">
         <v>38</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="3">
         <v>1</v>
       </c>
@@ -1458,12 +1461,12 @@
       <c r="F25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -1479,12 +1482,12 @@
       <c r="F26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -1500,12 +1503,12 @@
       <c r="F27" s="3">
         <v>107</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="14">
         <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="18"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="3">
         <v>4</v>
       </c>
@@ -1521,12 +1524,12 @@
       <c r="F28" s="3">
         <v>147</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="14">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1542,12 +1545,12 @@
       <c r="F29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="3">
         <v>6</v>
       </c>
@@ -1563,12 +1566,12 @@
       <c r="F30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="3">
         <v>7</v>
       </c>
@@ -1584,12 +1587,12 @@
       <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -1605,12 +1608,12 @@
       <c r="F32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="3">
         <v>9</v>
       </c>
@@ -1626,12 +1629,12 @@
       <c r="F33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="3">
         <v>10</v>
       </c>
@@ -1647,12 +1650,12 @@
       <c r="F34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="3">
         <v>11</v>
       </c>
@@ -1668,12 +1671,12 @@
       <c r="F35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="3">
         <v>12</v>
       </c>
@@ -1689,12 +1692,12 @@
       <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="3">
         <v>13</v>
       </c>
@@ -1710,12 +1713,12 @@
       <c r="F37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="3">
         <v>14</v>
       </c>
@@ -1731,12 +1734,12 @@
       <c r="F38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="3">
         <v>15</v>
       </c>
@@ -1752,12 +1755,12 @@
       <c r="F39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="3">
         <v>16</v>
       </c>
@@ -1773,12 +1776,12 @@
       <c r="F40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="3">
         <v>17</v>
       </c>
@@ -1794,12 +1797,12 @@
       <c r="F41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="3">
         <v>18</v>
       </c>
@@ -1815,12 +1818,12 @@
       <c r="F42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="3">
         <v>19</v>
       </c>
@@ -1836,12 +1839,12 @@
       <c r="F43" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="3">
         <v>20</v>
       </c>
@@ -1857,57 +1860,57 @@
       <c r="F44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21">
+      <c r="A45" s="26"/>
+      <c r="B45" s="15">
         <v>21</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="15">
         <v>749</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="15">
         <v>777</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="15">
         <v>759</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="16">
         <v>768</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="17">
         <v>0</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="17">
         <v>0</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="17">
         <v>38</v>
       </c>
-      <c r="F46" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="26" t="s">
+      <c r="F46" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="27"/>
-      <c r="B47" s="10">
+      <c r="A47" s="28"/>
+      <c r="B47" s="7">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1922,13 +1925,13 @@
       <c r="F47" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="27"/>
-      <c r="B48" s="10">
+      <c r="A48" s="28"/>
+      <c r="B48" s="7">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1943,13 +1946,13 @@
       <c r="F48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="27"/>
-      <c r="B49" s="10">
+      <c r="A49" s="28"/>
+      <c r="B49" s="7">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1964,13 +1967,13 @@
       <c r="F49" s="2">
         <v>108</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="4">
         <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="27"/>
-      <c r="B50" s="10">
+      <c r="A50" s="28"/>
+      <c r="B50" s="7">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1985,13 +1988,13 @@
       <c r="F50" s="2">
         <v>150</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="4">
         <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="27"/>
-      <c r="B51" s="10">
+      <c r="A51" s="28"/>
+      <c r="B51" s="7">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2006,13 +2009,13 @@
       <c r="F51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="27"/>
-      <c r="B52" s="10">
+      <c r="A52" s="28"/>
+      <c r="B52" s="7">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2027,13 +2030,13 @@
       <c r="F52" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="27"/>
-      <c r="B53" s="10">
+      <c r="A53" s="28"/>
+      <c r="B53" s="7">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2048,13 +2051,13 @@
       <c r="F53" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="27"/>
-      <c r="B54" s="10">
+      <c r="A54" s="28"/>
+      <c r="B54" s="7">
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2069,13 +2072,13 @@
       <c r="F54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="27"/>
-      <c r="B55" s="10">
+      <c r="A55" s="28"/>
+      <c r="B55" s="7">
         <v>9</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2090,13 +2093,13 @@
       <c r="F55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
-      <c r="B56" s="10">
+      <c r="A56" s="28"/>
+      <c r="B56" s="7">
         <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2111,13 +2114,13 @@
       <c r="F56" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="27"/>
-      <c r="B57" s="10">
+      <c r="A57" s="28"/>
+      <c r="B57" s="7">
         <v>11</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2132,13 +2135,13 @@
       <c r="F57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="27"/>
-      <c r="B58" s="10">
+      <c r="A58" s="28"/>
+      <c r="B58" s="7">
         <v>12</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2153,13 +2156,13 @@
       <c r="F58" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="27"/>
-      <c r="B59" s="10">
+      <c r="A59" s="28"/>
+      <c r="B59" s="7">
         <v>13</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2174,13 +2177,13 @@
       <c r="F59" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="27"/>
-      <c r="B60" s="10">
+      <c r="A60" s="28"/>
+      <c r="B60" s="7">
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2195,13 +2198,13 @@
       <c r="F60" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="27"/>
-      <c r="B61" s="10">
+      <c r="A61" s="28"/>
+      <c r="B61" s="7">
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2216,13 +2219,13 @@
       <c r="F61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="27"/>
-      <c r="B62" s="10">
+      <c r="A62" s="28"/>
+      <c r="B62" s="7">
         <v>16</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2237,13 +2240,13 @@
       <c r="F62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="27"/>
-      <c r="B63" s="10">
+      <c r="A63" s="28"/>
+      <c r="B63" s="7">
         <v>17</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2258,13 +2261,13 @@
       <c r="F63" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="27"/>
-      <c r="B64" s="10">
+      <c r="A64" s="28"/>
+      <c r="B64" s="7">
         <v>18</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2279,13 +2282,13 @@
       <c r="F64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="27"/>
-      <c r="B65" s="10">
+      <c r="A65" s="28"/>
+      <c r="B65" s="7">
         <v>19</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2300,13 +2303,13 @@
       <c r="F65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="27"/>
-      <c r="B66" s="10">
+      <c r="A66" s="28"/>
+      <c r="B66" s="7">
         <v>20</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2321,57 +2324,59 @@
       <c r="F66" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29">
+      <c r="A67" s="29"/>
+      <c r="B67" s="19">
         <v>21</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C67" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="19">
         <v>749</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="19">
         <v>787</v>
       </c>
-      <c r="F67" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" s="30" t="s">
+      <c r="F67" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="12">
         <v>0</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="12">
         <v>0</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="12">
         <v>58</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="3">
+        <v>1</v>
+      </c>
       <c r="C69" s="3" t="s">
         <v>8</v>
       </c>
@@ -2384,13 +2389,15 @@
       <c r="F69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
-      <c r="B70" s="3"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="3">
+        <v>2</v>
+      </c>
       <c r="C70" s="3" t="s">
         <v>10</v>
       </c>
@@ -2403,13 +2410,15 @@
       <c r="F70" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="G70" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
       <c r="C71" s="3" t="s">
         <v>12</v>
       </c>
@@ -2422,13 +2431,15 @@
       <c r="F71" s="3">
         <v>126</v>
       </c>
-      <c r="G71" s="19">
+      <c r="G71" s="14">
         <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="32"/>
-      <c r="B72" s="3"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="3">
+        <v>4</v>
+      </c>
       <c r="C72" s="3" t="s">
         <v>14</v>
       </c>
@@ -2441,13 +2452,15 @@
       <c r="F72" s="3">
         <v>168</v>
       </c>
-      <c r="G72" s="19">
+      <c r="G72" s="14">
         <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
-      <c r="B73" s="3"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="3">
+        <v>5</v>
+      </c>
       <c r="C73" s="3" t="s">
         <v>17</v>
       </c>
@@ -2460,13 +2473,15 @@
       <c r="F73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="19" t="s">
+      <c r="G73" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="3">
+        <v>6</v>
+      </c>
       <c r="C74" s="3" t="s">
         <v>20</v>
       </c>
@@ -2479,13 +2494,15 @@
       <c r="F74" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G74" s="19" t="s">
+      <c r="G74" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="3">
+        <v>7</v>
+      </c>
       <c r="C75" s="3" t="s">
         <v>22</v>
       </c>
@@ -2498,13 +2515,15 @@
       <c r="F75" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G75" s="19" t="s">
+      <c r="G75" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="3">
+        <v>8</v>
+      </c>
       <c r="C76" s="3" t="s">
         <v>24</v>
       </c>
@@ -2517,13 +2536,15 @@
       <c r="F76" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="32"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="3">
+        <v>9</v>
+      </c>
       <c r="C77" s="3" t="s">
         <v>26</v>
       </c>
@@ -2536,13 +2557,15 @@
       <c r="F77" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G77" s="19" t="s">
+      <c r="G77" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="32"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="3">
+        <v>10</v>
+      </c>
       <c r="C78" s="3" t="s">
         <v>28</v>
       </c>
@@ -2555,13 +2578,15 @@
       <c r="F78" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G78" s="19" t="s">
+      <c r="G78" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="32"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="3">
+        <v>11</v>
+      </c>
       <c r="C79" s="3" t="s">
         <v>30</v>
       </c>
@@ -2574,13 +2599,15 @@
       <c r="F79" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G79" s="19" t="s">
+      <c r="G79" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="32"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="3">
+        <v>12</v>
+      </c>
       <c r="C80" s="3" t="s">
         <v>32</v>
       </c>
@@ -2593,13 +2620,15 @@
       <c r="F80" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G80" s="19" t="s">
+      <c r="G80" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="32"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="3">
+        <v>13</v>
+      </c>
       <c r="C81" s="3" t="s">
         <v>34</v>
       </c>
@@ -2612,13 +2641,15 @@
       <c r="F81" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="3">
+        <v>14</v>
+      </c>
       <c r="C82" s="3" t="s">
         <v>36</v>
       </c>
@@ -2631,13 +2662,15 @@
       <c r="F82" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G82" s="19" t="s">
+      <c r="G82" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="3">
+        <v>15</v>
+      </c>
       <c r="C83" s="3" t="s">
         <v>38</v>
       </c>
@@ -2650,13 +2683,15 @@
       <c r="F83" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="19" t="s">
+      <c r="G83" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="32"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="3">
+        <v>16</v>
+      </c>
       <c r="C84" s="3" t="s">
         <v>40</v>
       </c>
@@ -2669,13 +2704,15 @@
       <c r="F84" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G84" s="19" t="s">
+      <c r="G84" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="32"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="3">
+        <v>17</v>
+      </c>
       <c r="C85" s="3" t="s">
         <v>42</v>
       </c>
@@ -2688,13 +2725,15 @@
       <c r="F85" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G85" s="19" t="s">
+      <c r="G85" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="3">
+        <v>18</v>
+      </c>
       <c r="C86" s="3" t="s">
         <v>44</v>
       </c>
@@ -2707,13 +2746,15 @@
       <c r="F86" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G86" s="19" t="s">
+      <c r="G86" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="32"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="3">
+        <v>19</v>
+      </c>
       <c r="C87" s="3" t="s">
         <v>47</v>
       </c>
@@ -2726,13 +2767,15 @@
       <c r="F87" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="32"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="3">
+        <v>20</v>
+      </c>
       <c r="C88" s="3" t="s">
         <v>49</v>
       </c>
@@ -2745,44 +2788,502 @@
       <c r="F88" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21" t="s">
+      <c r="A89" s="32"/>
+      <c r="B89" s="15">
+        <v>21</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="15">
         <v>769</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="15">
         <v>807</v>
       </c>
-      <c r="F89" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89" s="22" t="s">
+      <c r="F89" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="23"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
+      <c r="A90" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="17">
+        <v>0</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0</v>
+      </c>
+      <c r="E90" s="17">
+        <v>58</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A91" s="28"/>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2">
+        <v>59</v>
+      </c>
+      <c r="E91" s="2">
+        <v>77</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A92" s="28"/>
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="2">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2">
+        <v>116</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A93" s="28"/>
+      <c r="B93" s="2">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>117</v>
+      </c>
+      <c r="E93" s="2">
+        <v>155</v>
+      </c>
+      <c r="F93" s="2">
+        <v>127</v>
+      </c>
+      <c r="G93" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A94" s="28"/>
+      <c r="B94" s="2">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="2">
+        <v>156</v>
+      </c>
+      <c r="E94" s="2">
+        <v>194</v>
+      </c>
+      <c r="F94" s="2">
+        <v>167</v>
+      </c>
+      <c r="G94" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A95" s="28"/>
+      <c r="B95" s="2">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2">
+        <v>195</v>
+      </c>
+      <c r="E95" s="2">
+        <v>223</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A96" s="28"/>
+      <c r="B96" s="2">
+        <v>6</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="2">
+        <v>224</v>
+      </c>
+      <c r="E96" s="2">
+        <v>252</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" s="28"/>
+      <c r="B97" s="2">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2">
+        <v>253</v>
+      </c>
+      <c r="E97" s="2">
+        <v>281</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A98" s="28"/>
+      <c r="B98" s="2">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="2">
+        <v>582</v>
+      </c>
+      <c r="E98" s="2">
+        <v>310</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="28"/>
+      <c r="B99" s="2">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="2">
+        <v>311</v>
+      </c>
+      <c r="E99" s="2">
+        <v>339</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" s="28"/>
+      <c r="B100" s="2">
+        <v>10</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="2">
+        <v>340</v>
+      </c>
+      <c r="E100" s="2">
+        <v>368</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" s="28"/>
+      <c r="B101" s="2">
+        <v>11</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="2">
+        <v>369</v>
+      </c>
+      <c r="E101" s="2">
+        <v>427</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" s="28"/>
+      <c r="B102" s="2">
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102" s="2">
+        <v>428</v>
+      </c>
+      <c r="E102" s="2">
+        <v>456</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A103" s="28"/>
+      <c r="B103" s="2">
+        <v>13</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" s="2">
+        <v>457</v>
+      </c>
+      <c r="E103" s="2">
+        <v>515</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="28"/>
+      <c r="B104" s="2">
+        <v>14</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" s="2">
+        <v>516</v>
+      </c>
+      <c r="E104" s="2">
+        <v>554</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" s="28"/>
+      <c r="B105" s="2">
+        <v>15</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="2">
+        <v>555</v>
+      </c>
+      <c r="E105" s="2">
+        <v>593</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" s="28"/>
+      <c r="B106" s="2">
+        <v>16</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="2">
+        <v>594</v>
+      </c>
+      <c r="E106" s="2">
+        <v>632</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" s="28"/>
+      <c r="B107" s="2">
+        <v>17</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="2">
+        <v>633</v>
+      </c>
+      <c r="E107" s="2">
+        <v>671</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" s="28"/>
+      <c r="B108" s="2">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="2">
+        <v>372</v>
+      </c>
+      <c r="E108" s="2">
+        <v>700</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="28"/>
+      <c r="B109" s="2">
+        <v>19</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="2">
+        <v>701</v>
+      </c>
+      <c r="E109" s="2">
+        <v>729</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" s="28"/>
+      <c r="B110" s="2">
+        <v>20</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="2">
+        <v>730</v>
+      </c>
+      <c r="E110" s="2">
+        <v>768</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="29"/>
+      <c r="B111" s="5">
+        <v>21</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="5">
+        <v>769</v>
+      </c>
+      <c r="E111" s="5">
+        <v>807</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="A46:A67"/>
     <mergeCell ref="A68:A89"/>
+    <mergeCell ref="A90:A111"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -15,8 +15,78 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="C123" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>敵接近</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C125" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>飛び蹴り</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C126" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ラリアット</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C127" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>タックル</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="82">
   <si>
     <t>モーション内容</t>
     <phoneticPr fontId="1"/>
@@ -249,6 +319,78 @@
   </si>
   <si>
     <t>ナイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モッフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウルフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デストロイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝撃波？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未練しに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち上がり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -256,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +413,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +441,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -556,11 +712,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -618,6 +811,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -918,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3277,8 +3483,458 @@
         <v>7</v>
       </c>
     </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>78</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A113" s="34"/>
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" s="1">
+        <v>79</v>
+      </c>
+      <c r="E113" s="1">
+        <v>137</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A114" s="34"/>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114" s="1">
+        <v>138</v>
+      </c>
+      <c r="E114" s="1">
+        <v>176</v>
+      </c>
+      <c r="F114" s="1">
+        <v>151</v>
+      </c>
+      <c r="G114" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A115" s="34"/>
+      <c r="B115" s="1">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="1">
+        <v>177</v>
+      </c>
+      <c r="E115" s="1">
+        <v>255</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="35"/>
+      <c r="B116" s="1">
+        <v>4</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" s="1">
+        <v>256</v>
+      </c>
+      <c r="E116" s="1">
+        <v>284</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A117" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>150</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A118" s="34"/>
+      <c r="B118" s="1">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" s="1">
+        <v>151</v>
+      </c>
+      <c r="E118" s="1">
+        <v>187</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A119" s="34"/>
+      <c r="B119" s="1">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119" s="1">
+        <v>188</v>
+      </c>
+      <c r="E119" s="1">
+        <v>248</v>
+      </c>
+      <c r="F119" s="1">
+        <v>200</v>
+      </c>
+      <c r="G119" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A120" s="34"/>
+      <c r="B120" s="1">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" s="1">
+        <v>249</v>
+      </c>
+      <c r="E120" s="1">
+        <v>338</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="35"/>
+      <c r="B121" s="1">
+        <v>4</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" s="1">
+        <v>339</v>
+      </c>
+      <c r="E121" s="1">
+        <v>379</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A122" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>120</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A123" s="34"/>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D123" s="1">
+        <v>121</v>
+      </c>
+      <c r="E123" s="1">
+        <v>191</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A124" s="34"/>
+      <c r="B124" s="1">
+        <v>2</v>
+      </c>
+      <c r="C124" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" s="1">
+        <v>192</v>
+      </c>
+      <c r="E124" s="1">
+        <v>312</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A125" s="34"/>
+      <c r="B125" s="1">
+        <v>3</v>
+      </c>
+      <c r="C125" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D125" s="1">
+        <v>313</v>
+      </c>
+      <c r="E125" s="1">
+        <v>423</v>
+      </c>
+      <c r="F125" s="1">
+        <v>348</v>
+      </c>
+      <c r="G125" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A126" s="34"/>
+      <c r="B126" s="1">
+        <v>4</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" s="1">
+        <v>424</v>
+      </c>
+      <c r="E126" s="1">
+        <v>514</v>
+      </c>
+      <c r="F126" s="1">
+        <v>440</v>
+      </c>
+      <c r="G126" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A127" s="34"/>
+      <c r="B127" s="1">
+        <v>5</v>
+      </c>
+      <c r="C127" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" s="1">
+        <v>515</v>
+      </c>
+      <c r="E127" s="1">
+        <v>575</v>
+      </c>
+      <c r="F127" s="1">
+        <v>530</v>
+      </c>
+      <c r="G127" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A128" s="34"/>
+      <c r="B128" s="1">
+        <v>6</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D128" s="1">
+        <v>576</v>
+      </c>
+      <c r="E128" s="1">
+        <v>614</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A129" s="34"/>
+      <c r="B129" s="1">
+        <v>7</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="1">
+        <v>615</v>
+      </c>
+      <c r="E129" s="1">
+        <v>765</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A130" s="34"/>
+      <c r="B130" s="1">
+        <v>8</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" s="1">
+        <v>766</v>
+      </c>
+      <c r="E130" s="1">
+        <v>968</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A131" s="34"/>
+      <c r="B131" s="1">
+        <v>9</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D131" s="1">
+        <v>969</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1059</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="35"/>
+      <c r="B132" s="1">
+        <v>10</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1180</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A132"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="A46:A67"/>
@@ -3288,6 +3944,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,114 +283,114 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>待機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃１の続き</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジシャン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>未使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モッフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウルフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デストロイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝撃波？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未練しに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立ち上がり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ファイター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>待機</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃１の続き</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マジシャン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未使用</t>
-  </si>
-  <si>
-    <t>未使用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プリースト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モッフ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダメージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウルフ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デストロイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>待機</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>？？？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>衝撃波？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未練しに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>立ち上がり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -775,6 +775,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,19 +824,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1127,20 +1127,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -1163,8 +1163,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="7">
@@ -1186,8 +1186,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1207,8 +1207,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1228,8 +1228,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1249,8 +1249,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1270,8 +1270,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1291,8 +1291,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1312,8 +1312,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1333,8 +1333,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1342,10 +1342,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="E10" s="2">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
@@ -1354,8 +1354,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1375,8 +1375,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1396,8 +1396,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1417,8 +1417,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1438,8 +1438,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1459,8 +1459,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1480,8 +1480,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1501,8 +1501,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1522,8 +1522,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1543,8 +1543,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1564,8 +1564,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1585,8 +1585,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1606,8 +1606,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+    <row r="23" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -1627,15 +1627,15 @@
         <v>950</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
-        <v>54</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="B24" s="12">
         <v>0</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -1650,8 +1650,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="25"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
       <c r="B25" s="3">
         <v>1</v>
       </c>
@@ -1671,8 +1671,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="25"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -1689,11 +1689,11 @@
         <v>46</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="25"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -1713,8 +1713,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="25"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
       <c r="B28" s="3">
         <v>4</v>
       </c>
@@ -1734,8 +1734,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="25"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1755,8 +1755,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="25"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
       <c r="B30" s="3">
         <v>6</v>
       </c>
@@ -1776,8 +1776,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="25"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
       <c r="B31" s="3">
         <v>7</v>
       </c>
@@ -1797,8 +1797,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -1818,8 +1818,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
       <c r="B33" s="3">
         <v>9</v>
       </c>
@@ -1839,8 +1839,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="25"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
       <c r="B34" s="3">
         <v>10</v>
       </c>
@@ -1860,8 +1860,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
       <c r="B35" s="3">
         <v>11</v>
       </c>
@@ -1881,8 +1881,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
       <c r="B36" s="3">
         <v>12</v>
       </c>
@@ -1902,8 +1902,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
       <c r="B37" s="3">
         <v>13</v>
       </c>
@@ -1923,8 +1923,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="25"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
       <c r="B38" s="3">
         <v>14</v>
       </c>
@@ -1944,8 +1944,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="25"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
       <c r="B39" s="3">
         <v>15</v>
       </c>
@@ -1965,8 +1965,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="25"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
       <c r="B40" s="3">
         <v>16</v>
       </c>
@@ -1986,8 +1986,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="25"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
       <c r="B41" s="3">
         <v>17</v>
       </c>
@@ -2007,8 +2007,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="25"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="30"/>
       <c r="B42" s="3">
         <v>18</v>
       </c>
@@ -2028,8 +2028,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="30"/>
       <c r="B43" s="3">
         <v>19</v>
       </c>
@@ -2049,8 +2049,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="25"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
       <c r="B44" s="3">
         <v>20</v>
       </c>
@@ -2070,13 +2070,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
+    <row r="45" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
       <c r="B45" s="15">
         <v>21</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="15">
         <v>749</v>
@@ -2091,9 +2091,9 @@
         <v>768</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="27" t="s">
-        <v>58</v>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="B46" s="17">
         <v>0</v>
@@ -2114,8 +2114,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="28"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
       <c r="B47" s="7">
         <v>1</v>
       </c>
@@ -2132,11 +2132,11 @@
         <v>19</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
       <c r="B48" s="7">
         <v>2</v>
       </c>
@@ -2150,14 +2150,14 @@
         <v>96</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="28"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
       <c r="B49" s="7">
         <v>3</v>
       </c>
@@ -2177,8 +2177,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
       <c r="B50" s="7">
         <v>4</v>
       </c>
@@ -2198,8 +2198,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="28"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
       <c r="B51" s="7">
         <v>5</v>
       </c>
@@ -2213,14 +2213,14 @@
         <v>203</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
       <c r="B52" s="7">
         <v>6</v>
       </c>
@@ -2234,14 +2234,14 @@
         <v>232</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="33"/>
       <c r="B53" s="7">
         <v>7</v>
       </c>
@@ -2255,14 +2255,14 @@
         <v>261</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="33"/>
       <c r="B54" s="7">
         <v>8</v>
       </c>
@@ -2276,14 +2276,14 @@
         <v>290</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
       <c r="B55" s="7">
         <v>9</v>
       </c>
@@ -2297,14 +2297,14 @@
         <v>319</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
       <c r="B56" s="7">
         <v>10</v>
       </c>
@@ -2321,11 +2321,11 @@
         <v>46</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="33"/>
       <c r="B57" s="7">
         <v>11</v>
       </c>
@@ -2342,11 +2342,11 @@
         <v>46</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="33"/>
       <c r="B58" s="7">
         <v>12</v>
       </c>
@@ -2360,14 +2360,14 @@
         <v>436</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
       <c r="B59" s="7">
         <v>13</v>
       </c>
@@ -2381,14 +2381,14 @@
         <v>495</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
       <c r="B60" s="7">
         <v>14</v>
       </c>
@@ -2402,14 +2402,14 @@
         <v>534</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="33"/>
       <c r="B61" s="7">
         <v>15</v>
       </c>
@@ -2426,11 +2426,11 @@
         <v>46</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
       <c r="B62" s="7">
         <v>16</v>
       </c>
@@ -2444,14 +2444,14 @@
         <v>612</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
       <c r="B63" s="7">
         <v>17</v>
       </c>
@@ -2465,14 +2465,14 @@
         <v>651</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="33"/>
       <c r="B64" s="7">
         <v>18</v>
       </c>
@@ -2486,14 +2486,14 @@
         <v>680</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="33"/>
       <c r="B65" s="7">
         <v>19</v>
       </c>
@@ -2507,14 +2507,14 @@
         <v>709</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="33"/>
       <c r="B66" s="7">
         <v>20</v>
       </c>
@@ -2528,19 +2528,19 @@
         <v>748</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34"/>
       <c r="B67" s="19">
         <v>21</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="19">
         <v>749</v>
@@ -2549,15 +2549,15 @@
         <v>787</v>
       </c>
       <c r="F67" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="35" t="s">
         <v>61</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="30" t="s">
-        <v>62</v>
       </c>
       <c r="B68" s="12">
         <v>0</v>
@@ -2578,8 +2578,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="36"/>
       <c r="B69" s="3">
         <v>1</v>
       </c>
@@ -2593,14 +2593,14 @@
         <v>77</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="36"/>
       <c r="B70" s="3">
         <v>2</v>
       </c>
@@ -2614,14 +2614,14 @@
         <v>116</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="36"/>
       <c r="B71" s="3">
         <v>3</v>
       </c>
@@ -2641,8 +2641,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="36"/>
       <c r="B72" s="3">
         <v>4</v>
       </c>
@@ -2662,8 +2662,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="36"/>
       <c r="B73" s="3">
         <v>5</v>
       </c>
@@ -2680,11 +2680,11 @@
         <v>19</v>
       </c>
       <c r="G73" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="36"/>
       <c r="B74" s="3">
         <v>6</v>
       </c>
@@ -2698,14 +2698,14 @@
         <v>252</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="36"/>
       <c r="B75" s="3">
         <v>7</v>
       </c>
@@ -2722,11 +2722,11 @@
         <v>46</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="36"/>
       <c r="B76" s="3">
         <v>8</v>
       </c>
@@ -2740,14 +2740,14 @@
         <v>310</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="36"/>
       <c r="B77" s="3">
         <v>9</v>
       </c>
@@ -2761,14 +2761,14 @@
         <v>339</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="31"/>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="36"/>
       <c r="B78" s="3">
         <v>10</v>
       </c>
@@ -2782,14 +2782,14 @@
         <v>368</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="36"/>
       <c r="B79" s="3">
         <v>11</v>
       </c>
@@ -2803,14 +2803,14 @@
         <v>427</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="31"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="36"/>
       <c r="B80" s="3">
         <v>12</v>
       </c>
@@ -2830,8 +2830,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="36"/>
       <c r="B81" s="3">
         <v>13</v>
       </c>
@@ -2845,14 +2845,14 @@
         <v>515</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="31"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="36"/>
       <c r="B82" s="3">
         <v>14</v>
       </c>
@@ -2866,14 +2866,14 @@
         <v>554</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="31"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="36"/>
       <c r="B83" s="3">
         <v>15</v>
       </c>
@@ -2887,14 +2887,14 @@
         <v>593</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="31"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="36"/>
       <c r="B84" s="3">
         <v>16</v>
       </c>
@@ -2914,8 +2914,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="31"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="36"/>
       <c r="B85" s="3">
         <v>17</v>
       </c>
@@ -2935,8 +2935,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="36"/>
       <c r="B86" s="3">
         <v>18</v>
       </c>
@@ -2956,8 +2956,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="36"/>
       <c r="B87" s="3">
         <v>19</v>
       </c>
@@ -2971,14 +2971,14 @@
         <v>729</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="31"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="36"/>
       <c r="B88" s="3">
         <v>20</v>
       </c>
@@ -2992,19 +2992,19 @@
         <v>768</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="32"/>
+    <row r="89" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="37"/>
       <c r="B89" s="15">
         <v>21</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89" s="15">
         <v>769</v>
@@ -3013,15 +3013,15 @@
         <v>807</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="27" t="s">
-        <v>63</v>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="B90" s="17">
         <v>0</v>
@@ -3042,8 +3042,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="28"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="33"/>
       <c r="B91" s="2">
         <v>1</v>
       </c>
@@ -3057,14 +3057,14 @@
         <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="28"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="33"/>
       <c r="B92" s="2">
         <v>2</v>
       </c>
@@ -3078,14 +3078,14 @@
         <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="28"/>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="33"/>
       <c r="B93" s="2">
         <v>3</v>
       </c>
@@ -3105,8 +3105,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="28"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="33"/>
       <c r="B94" s="2">
         <v>4</v>
       </c>
@@ -3126,8 +3126,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="28"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="33"/>
       <c r="B95" s="2">
         <v>5</v>
       </c>
@@ -3144,11 +3144,11 @@
         <v>7</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="33"/>
       <c r="B96" s="2">
         <v>6</v>
       </c>
@@ -3162,14 +3162,14 @@
         <v>252</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="28"/>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="33"/>
       <c r="B97" s="2">
         <v>7</v>
       </c>
@@ -3186,11 +3186,11 @@
         <v>7</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="33"/>
       <c r="B98" s="2">
         <v>8</v>
       </c>
@@ -3204,14 +3204,14 @@
         <v>310</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="33"/>
       <c r="B99" s="2">
         <v>9</v>
       </c>
@@ -3225,14 +3225,14 @@
         <v>339</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="28"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="33"/>
       <c r="B100" s="2">
         <v>10</v>
       </c>
@@ -3246,14 +3246,14 @@
         <v>368</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="33"/>
       <c r="B101" s="2">
         <v>11</v>
       </c>
@@ -3267,14 +3267,14 @@
         <v>427</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="33"/>
       <c r="B102" s="2">
         <v>12</v>
       </c>
@@ -3294,8 +3294,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="28"/>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="33"/>
       <c r="B103" s="2">
         <v>13</v>
       </c>
@@ -3309,14 +3309,14 @@
         <v>515</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="28"/>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="33"/>
       <c r="B104" s="2">
         <v>14</v>
       </c>
@@ -3330,14 +3330,14 @@
         <v>554</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="28"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="33"/>
       <c r="B105" s="2">
         <v>15</v>
       </c>
@@ -3351,14 +3351,14 @@
         <v>593</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="28"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="33"/>
       <c r="B106" s="2">
         <v>16</v>
       </c>
@@ -3378,8 +3378,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="28"/>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="33"/>
       <c r="B107" s="2">
         <v>17</v>
       </c>
@@ -3399,8 +3399,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="28"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="33"/>
       <c r="B108" s="2">
         <v>18</v>
       </c>
@@ -3420,8 +3420,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="28"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="33"/>
       <c r="B109" s="2">
         <v>19</v>
       </c>
@@ -3435,14 +3435,14 @@
         <v>729</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="28"/>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="33"/>
       <c r="B110" s="2">
         <v>20</v>
       </c>
@@ -3456,19 +3456,19 @@
         <v>768</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="29"/>
+    <row r="111" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="34"/>
       <c r="B111" s="5">
         <v>21</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111" s="5">
         <v>769</v>
@@ -3477,15 +3477,15 @@
         <v>807</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="33" t="s">
-        <v>64</v>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -3500,19 +3500,19 @@
         <v>78</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="34"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="23"/>
       <c r="B113" s="1">
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" s="1">
         <v>79</v>
@@ -3521,19 +3521,19 @@
         <v>137</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="34"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="23"/>
       <c r="B114" s="1">
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D114" s="1">
         <v>138</v>
@@ -3548,13 +3548,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="34"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="23"/>
       <c r="B115" s="1">
         <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D115" s="1">
         <v>177</v>
@@ -3563,19 +3563,19 @@
         <v>255</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="35"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="24"/>
       <c r="B116" s="1">
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D116" s="1">
         <v>256</v>
@@ -3584,15 +3584,15 @@
         <v>284</v>
       </c>
       <c r="F116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="25" t="s">
         <v>71</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="36" t="s">
-        <v>72</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -3607,19 +3607,19 @@
         <v>150</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="34"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="23"/>
       <c r="B118" s="1">
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D118" s="1">
         <v>151</v>
@@ -3628,19 +3628,19 @@
         <v>187</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="34"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="23"/>
       <c r="B119" s="1">
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D119" s="1">
         <v>188</v>
@@ -3655,13 +3655,13 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="34"/>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="23"/>
       <c r="B120" s="1">
         <v>3</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D120" s="1">
         <v>249</v>
@@ -3670,19 +3670,19 @@
         <v>338</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="35"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="24"/>
       <c r="B121" s="1">
         <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D121" s="1">
         <v>339</v>
@@ -3691,20 +3691,20 @@
         <v>379</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="36" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D122" s="1">
@@ -3714,19 +3714,19 @@
         <v>120</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="34"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="23"/>
       <c r="B123" s="1">
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D123" s="1">
         <v>121</v>
@@ -3735,19 +3735,19 @@
         <v>191</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="34"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="23"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
-      <c r="C124" s="37" t="s">
-        <v>65</v>
+      <c r="C124" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D124" s="1">
         <v>192</v>
@@ -3756,19 +3756,19 @@
         <v>312</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="34"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="23"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
-      <c r="C125" s="37" t="s">
-        <v>75</v>
+      <c r="C125" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="D125" s="1">
         <v>313</v>
@@ -3783,13 +3783,13 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="34"/>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="23"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D126" s="1">
         <v>424</v>
@@ -3804,13 +3804,13 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="34"/>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="23"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
-      <c r="C127" s="37" t="s">
-        <v>77</v>
+      <c r="C127" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="D127" s="1">
         <v>515</v>
@@ -3825,13 +3825,13 @@
         <v>575</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="34"/>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="23"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D128" s="1">
         <v>576</v>
@@ -3840,19 +3840,19 @@
         <v>614</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="34"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="23"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D129" s="1">
         <v>615</v>
@@ -3861,19 +3861,19 @@
         <v>765</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="34"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="23"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
-      <c r="C130" s="37" t="s">
-        <v>67</v>
+      <c r="C130" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="D130" s="1">
         <v>766</v>
@@ -3882,19 +3882,19 @@
         <v>968</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="34"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="23"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D131" s="1">
         <v>969</v>
@@ -3903,19 +3903,19 @@
         <v>1059</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="35"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="24"/>
       <c r="B132" s="1">
         <v>10</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D132" s="1">
         <v>1060</v>
@@ -3924,10 +3924,10 @@
         <v>1180</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3954,7 +3954,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3967,7 +3967,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="84">
   <si>
     <t>モーション内容</t>
     <phoneticPr fontId="1"/>
@@ -391,6 +391,14 @@
   </si>
   <si>
     <t>ファイター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1127,20 +1135,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>53</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="27"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -1207,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -1228,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -1249,7 +1257,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="27"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -1270,7 +1278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="27"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -1291,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -1312,7 +1320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
       <c r="B9" s="2">
         <v>7</v>
@@ -1333,7 +1341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
       <c r="B10" s="2">
         <v>8</v>
@@ -1354,7 +1362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
       <c r="B11" s="2">
         <v>9</v>
@@ -1375,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -1396,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="2">
         <v>11</v>
@@ -1417,7 +1425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="2">
         <v>12</v>
@@ -1438,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
       <c r="B15" s="2">
         <v>13</v>
@@ -1459,7 +1467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="2">
         <v>14</v>
@@ -1480,7 +1488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
       <c r="B17" s="2">
         <v>15</v>
@@ -1501,7 +1509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
       <c r="B18" s="2">
         <v>16</v>
@@ -1522,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
       <c r="B19" s="2">
         <v>17</v>
@@ -1543,7 +1551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="2">
         <v>18</v>
@@ -1564,7 +1572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
       <c r="B21" s="2">
         <v>19</v>
@@ -1585,7 +1593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="2">
         <v>20</v>
@@ -1606,7 +1614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28"/>
       <c r="B23" s="5">
         <v>21</v>
@@ -1627,7 +1635,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -1650,7 +1658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="3">
         <v>1</v>
@@ -1659,10 +1667,11 @@
         <v>9</v>
       </c>
       <c r="D25" s="3">
+        <f>E24+1</f>
         <v>39</v>
       </c>
       <c r="E25" s="3">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>7</v>
@@ -1671,7 +1680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="3">
         <v>2</v>
@@ -1680,10 +1689,11 @@
         <v>11</v>
       </c>
       <c r="D26" s="3">
-        <v>58</v>
+        <f t="shared" ref="D26:D45" si="0">E25+1</f>
+        <v>68</v>
       </c>
       <c r="E26" s="3">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>46</v>
@@ -1692,7 +1702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="3">
         <v>3</v>
@@ -1701,19 +1711,20 @@
         <v>13</v>
       </c>
       <c r="D27" s="3">
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>107</v>
       </c>
       <c r="E27" s="3">
         <v>135</v>
       </c>
       <c r="F27" s="3">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G27" s="14">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="3">
         <v>4</v>
@@ -1722,19 +1733,20 @@
         <v>15</v>
       </c>
       <c r="D28" s="3">
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="E28" s="3">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F28" s="3">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G28" s="14">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="3">
         <v>5</v>
@@ -1743,10 +1755,11 @@
         <v>18</v>
       </c>
       <c r="D29" s="3">
-        <v>175</v>
+        <f t="shared" si="0"/>
+        <v>185</v>
       </c>
       <c r="E29" s="3">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>7</v>
@@ -1755,7 +1768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="3">
         <v>6</v>
@@ -1764,10 +1777,11 @@
         <v>21</v>
       </c>
       <c r="D30" s="3">
-        <v>204</v>
+        <f t="shared" si="0"/>
+        <v>244</v>
       </c>
       <c r="E30" s="3">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>7</v>
@@ -1776,7 +1790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="3">
         <v>7</v>
@@ -1785,10 +1799,11 @@
         <v>23</v>
       </c>
       <c r="D31" s="3">
-        <v>233</v>
+        <f t="shared" si="0"/>
+        <v>273</v>
       </c>
       <c r="E31" s="3">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>7</v>
@@ -1797,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="3">
         <v>8</v>
@@ -1806,10 +1821,11 @@
         <v>25</v>
       </c>
       <c r="D32" s="3">
-        <v>262</v>
+        <f t="shared" si="0"/>
+        <v>302</v>
       </c>
       <c r="E32" s="3">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>7</v>
@@ -1818,7 +1834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="3">
         <v>9</v>
@@ -1827,10 +1843,11 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>291</v>
+        <f t="shared" si="0"/>
+        <v>361</v>
       </c>
       <c r="E33" s="3">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>7</v>
@@ -1839,7 +1856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="3">
         <v>10</v>
@@ -1848,10 +1865,11 @@
         <v>29</v>
       </c>
       <c r="D34" s="3">
-        <v>320</v>
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
       <c r="E34" s="3">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>7</v>
@@ -1860,7 +1878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="3">
         <v>11</v>
@@ -1869,10 +1887,11 @@
         <v>31</v>
       </c>
       <c r="D35" s="3">
-        <v>349</v>
+        <f t="shared" si="0"/>
+        <v>419</v>
       </c>
       <c r="E35" s="3">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>7</v>
@@ -1881,7 +1900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="30"/>
       <c r="B36" s="3">
         <v>12</v>
@@ -1890,10 +1909,11 @@
         <v>33</v>
       </c>
       <c r="D36" s="3">
-        <v>408</v>
+        <f t="shared" si="0"/>
+        <v>478</v>
       </c>
       <c r="E36" s="3">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>7</v>
@@ -1902,7 +1922,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="3">
         <v>13</v>
@@ -1911,10 +1931,11 @@
         <v>35</v>
       </c>
       <c r="D37" s="3">
-        <v>437</v>
+        <f t="shared" si="0"/>
+        <v>507</v>
       </c>
       <c r="E37" s="3">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>7</v>
@@ -1923,7 +1944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="30"/>
       <c r="B38" s="3">
         <v>14</v>
@@ -1932,10 +1953,11 @@
         <v>37</v>
       </c>
       <c r="D38" s="3">
-        <v>496</v>
+        <f t="shared" si="0"/>
+        <v>566</v>
       </c>
       <c r="E38" s="3">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>7</v>
@@ -1944,7 +1966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="3">
         <v>15</v>
@@ -1953,10 +1975,11 @@
         <v>39</v>
       </c>
       <c r="D39" s="3">
-        <v>534</v>
+        <f t="shared" si="0"/>
+        <v>595</v>
       </c>
       <c r="E39" s="3">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>7</v>
@@ -1965,7 +1988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="3">
         <v>16</v>
@@ -1974,10 +1997,11 @@
         <v>41</v>
       </c>
       <c r="D40" s="3">
-        <v>573</v>
+        <f t="shared" si="0"/>
+        <v>654</v>
       </c>
       <c r="E40" s="3">
-        <v>612</v>
+        <v>712</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>7</v>
@@ -1986,7 +2010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="3">
         <v>17</v>
@@ -1995,10 +2019,11 @@
         <v>43</v>
       </c>
       <c r="D41" s="3">
-        <v>612</v>
+        <f t="shared" si="0"/>
+        <v>713</v>
       </c>
       <c r="E41" s="3">
-        <v>651</v>
+        <v>741</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>7</v>
@@ -2007,7 +2032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="3">
         <v>18</v>
@@ -2016,10 +2041,11 @@
         <v>45</v>
       </c>
       <c r="D42" s="3">
-        <v>652</v>
+        <f t="shared" si="0"/>
+        <v>742</v>
       </c>
       <c r="E42" s="3">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>7</v>
@@ -2028,7 +2054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="30"/>
       <c r="B43" s="3">
         <v>19</v>
@@ -2037,10 +2063,11 @@
         <v>48</v>
       </c>
       <c r="D43" s="3">
-        <v>681</v>
+        <f t="shared" si="0"/>
+        <v>801</v>
       </c>
       <c r="E43" s="3">
-        <v>709</v>
+        <v>859</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>7</v>
@@ -2049,7 +2076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="B44" s="3">
         <v>20</v>
@@ -2058,10 +2085,11 @@
         <v>50</v>
       </c>
       <c r="D44" s="3">
-        <v>710</v>
+        <f t="shared" si="0"/>
+        <v>860</v>
       </c>
       <c r="E44" s="3">
-        <v>748</v>
+        <v>918</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>7</v>
@@ -2070,7 +2098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="15">
         <v>21</v>
@@ -2078,20 +2106,21 @@
       <c r="C45" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="15">
-        <v>749</v>
+      <c r="D45" s="3">
+        <f t="shared" si="0"/>
+        <v>919</v>
       </c>
       <c r="E45" s="15">
-        <v>777</v>
-      </c>
-      <c r="F45" s="15">
-        <v>759</v>
-      </c>
-      <c r="G45" s="16">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>948</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="32" t="s">
         <v>57</v>
       </c>
@@ -2114,7 +2143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="33"/>
       <c r="B47" s="7">
         <v>1</v>
@@ -2123,10 +2152,11 @@
         <v>8</v>
       </c>
       <c r="D47" s="2">
+        <f>E46+1</f>
         <v>39</v>
       </c>
       <c r="E47" s="2">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>19</v>
@@ -2135,7 +2165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="33"/>
       <c r="B48" s="7">
         <v>2</v>
@@ -2144,10 +2174,11 @@
         <v>10</v>
       </c>
       <c r="D48" s="2">
-        <v>58</v>
+        <f t="shared" ref="D48:D67" si="1">E47+1</f>
+        <v>68</v>
       </c>
       <c r="E48" s="2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>60</v>
@@ -2156,7 +2187,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="33"/>
       <c r="B49" s="7">
         <v>3</v>
@@ -2165,19 +2196,20 @@
         <v>12</v>
       </c>
       <c r="D49" s="2">
-        <v>97</v>
+        <f t="shared" si="1"/>
+        <v>107</v>
       </c>
       <c r="E49" s="2">
         <v>135</v>
       </c>
       <c r="F49" s="2">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G49" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="33"/>
       <c r="B50" s="7">
         <v>4</v>
@@ -2186,19 +2218,20 @@
         <v>14</v>
       </c>
       <c r="D50" s="2">
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="E50" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F50" s="2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G50" s="4">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="33"/>
       <c r="B51" s="7">
         <v>5</v>
@@ -2207,10 +2240,11 @@
         <v>17</v>
       </c>
       <c r="D51" s="2">
-        <v>175</v>
+        <f t="shared" si="1"/>
+        <v>185</v>
       </c>
       <c r="E51" s="2">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>60</v>
@@ -2219,7 +2253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="33"/>
       <c r="B52" s="7">
         <v>6</v>
@@ -2228,10 +2262,11 @@
         <v>20</v>
       </c>
       <c r="D52" s="2">
-        <v>204</v>
+        <f t="shared" si="1"/>
+        <v>244</v>
       </c>
       <c r="E52" s="2">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>60</v>
@@ -2240,7 +2275,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="33"/>
       <c r="B53" s="7">
         <v>7</v>
@@ -2249,10 +2284,11 @@
         <v>22</v>
       </c>
       <c r="D53" s="2">
-        <v>233</v>
+        <f t="shared" si="1"/>
+        <v>273</v>
       </c>
       <c r="E53" s="2">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>60</v>
@@ -2261,7 +2297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="33"/>
       <c r="B54" s="7">
         <v>8</v>
@@ -2270,10 +2306,11 @@
         <v>24</v>
       </c>
       <c r="D54" s="2">
-        <v>262</v>
+        <f t="shared" si="1"/>
+        <v>302</v>
       </c>
       <c r="E54" s="2">
-        <v>290</v>
+        <v>360</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>60</v>
@@ -2282,7 +2319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="33"/>
       <c r="B55" s="7">
         <v>9</v>
@@ -2291,10 +2328,11 @@
         <v>26</v>
       </c>
       <c r="D55" s="2">
-        <v>291</v>
+        <f t="shared" si="1"/>
+        <v>361</v>
       </c>
       <c r="E55" s="2">
-        <v>319</v>
+        <v>389</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>60</v>
@@ -2303,7 +2341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="33"/>
       <c r="B56" s="7">
         <v>10</v>
@@ -2312,10 +2350,11 @@
         <v>28</v>
       </c>
       <c r="D56" s="2">
-        <v>320</v>
+        <f t="shared" si="1"/>
+        <v>390</v>
       </c>
       <c r="E56" s="2">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>46</v>
@@ -2324,7 +2363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="33"/>
       <c r="B57" s="7">
         <v>11</v>
@@ -2333,10 +2372,11 @@
         <v>30</v>
       </c>
       <c r="D57" s="2">
-        <v>349</v>
+        <f t="shared" si="1"/>
+        <v>419</v>
       </c>
       <c r="E57" s="2">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>46</v>
@@ -2345,7 +2385,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="33"/>
       <c r="B58" s="7">
         <v>12</v>
@@ -2354,10 +2394,11 @@
         <v>32</v>
       </c>
       <c r="D58" s="2">
-        <v>408</v>
+        <f t="shared" si="1"/>
+        <v>478</v>
       </c>
       <c r="E58" s="2">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>60</v>
@@ -2366,7 +2407,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="33"/>
       <c r="B59" s="7">
         <v>13</v>
@@ -2375,10 +2416,11 @@
         <v>34</v>
       </c>
       <c r="D59" s="2">
-        <v>437</v>
+        <f t="shared" si="1"/>
+        <v>507</v>
       </c>
       <c r="E59" s="2">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>60</v>
@@ -2387,7 +2429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="33"/>
       <c r="B60" s="7">
         <v>14</v>
@@ -2396,10 +2438,11 @@
         <v>36</v>
       </c>
       <c r="D60" s="2">
-        <v>496</v>
+        <f t="shared" si="1"/>
+        <v>566</v>
       </c>
       <c r="E60" s="2">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>60</v>
@@ -2408,7 +2451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="33"/>
       <c r="B61" s="7">
         <v>15</v>
@@ -2417,10 +2460,11 @@
         <v>38</v>
       </c>
       <c r="D61" s="2">
-        <v>534</v>
+        <f t="shared" si="1"/>
+        <v>595</v>
       </c>
       <c r="E61" s="2">
-        <v>573</v>
+        <v>653</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>46</v>
@@ -2429,7 +2473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="33"/>
       <c r="B62" s="7">
         <v>16</v>
@@ -2438,10 +2482,11 @@
         <v>40</v>
       </c>
       <c r="D62" s="2">
-        <v>573</v>
+        <f t="shared" si="1"/>
+        <v>654</v>
       </c>
       <c r="E62" s="2">
-        <v>612</v>
+        <v>712</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>60</v>
@@ -2450,7 +2495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="33"/>
       <c r="B63" s="7">
         <v>17</v>
@@ -2459,10 +2504,11 @@
         <v>42</v>
       </c>
       <c r="D63" s="2">
-        <v>612</v>
+        <f t="shared" si="1"/>
+        <v>713</v>
       </c>
       <c r="E63" s="2">
-        <v>651</v>
+        <v>741</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>60</v>
@@ -2471,7 +2517,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="33"/>
       <c r="B64" s="7">
         <v>18</v>
@@ -2480,10 +2526,11 @@
         <v>44</v>
       </c>
       <c r="D64" s="2">
-        <v>652</v>
+        <f t="shared" si="1"/>
+        <v>742</v>
       </c>
       <c r="E64" s="2">
-        <v>680</v>
+        <v>800</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>60</v>
@@ -2492,7 +2539,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="33"/>
       <c r="B65" s="7">
         <v>19</v>
@@ -2501,10 +2548,11 @@
         <v>47</v>
       </c>
       <c r="D65" s="2">
-        <v>681</v>
+        <f t="shared" si="1"/>
+        <v>801</v>
       </c>
       <c r="E65" s="2">
-        <v>709</v>
+        <v>859</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>60</v>
@@ -2513,7 +2561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="33"/>
       <c r="B66" s="7">
         <v>20</v>
@@ -2522,10 +2570,11 @@
         <v>49</v>
       </c>
       <c r="D66" s="2">
-        <v>710</v>
+        <f t="shared" si="1"/>
+        <v>860</v>
       </c>
       <c r="E66" s="2">
-        <v>748</v>
+        <v>918</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>60</v>
@@ -2534,7 +2583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="34"/>
       <c r="B67" s="19">
         <v>21</v>
@@ -2542,11 +2591,12 @@
       <c r="C67" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="19">
-        <v>749</v>
+      <c r="D67" s="2">
+        <f t="shared" si="1"/>
+        <v>919</v>
       </c>
       <c r="E67" s="19">
-        <v>787</v>
+        <v>957</v>
       </c>
       <c r="F67" s="19" t="s">
         <v>60</v>
@@ -2555,7 +2605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="35" t="s">
         <v>61</v>
       </c>
@@ -2578,7 +2628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="36"/>
       <c r="B69" s="3">
         <v>1</v>
@@ -2587,10 +2637,11 @@
         <v>8</v>
       </c>
       <c r="D69" s="3">
+        <f>E68+1</f>
         <v>59</v>
       </c>
       <c r="E69" s="3">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>60</v>
@@ -2599,7 +2650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="36"/>
       <c r="B70" s="3">
         <v>2</v>
@@ -2608,10 +2659,11 @@
         <v>10</v>
       </c>
       <c r="D70" s="3">
-        <v>78</v>
+        <f t="shared" ref="D70:D89" si="2">E69+1</f>
+        <v>88</v>
       </c>
       <c r="E70" s="3">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>60</v>
@@ -2620,7 +2672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="36"/>
       <c r="B71" s="3">
         <v>3</v>
@@ -2629,19 +2681,20 @@
         <v>12</v>
       </c>
       <c r="D71" s="3">
-        <v>117</v>
+        <f t="shared" si="2"/>
+        <v>127</v>
       </c>
       <c r="E71" s="3">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F71" s="3">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G71" s="14">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="36"/>
       <c r="B72" s="3">
         <v>4</v>
@@ -2650,19 +2703,20 @@
         <v>14</v>
       </c>
       <c r="D72" s="3">
-        <v>156</v>
+        <f t="shared" si="2"/>
+        <v>166</v>
       </c>
       <c r="E72" s="3">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F72" s="3">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="G72" s="14">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="36"/>
       <c r="B73" s="3">
         <v>5</v>
@@ -2671,10 +2725,11 @@
         <v>17</v>
       </c>
       <c r="D73" s="3">
-        <v>195</v>
+        <f t="shared" si="2"/>
+        <v>205</v>
       </c>
       <c r="E73" s="3">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>19</v>
@@ -2683,7 +2738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="36"/>
       <c r="B74" s="3">
         <v>6</v>
@@ -2692,10 +2747,11 @@
         <v>20</v>
       </c>
       <c r="D74" s="3">
-        <v>224</v>
+        <f t="shared" si="2"/>
+        <v>264</v>
       </c>
       <c r="E74" s="3">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>60</v>
@@ -2704,7 +2760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="36"/>
       <c r="B75" s="3">
         <v>7</v>
@@ -2713,10 +2769,11 @@
         <v>22</v>
       </c>
       <c r="D75" s="3">
-        <v>253</v>
+        <f t="shared" si="2"/>
+        <v>293</v>
       </c>
       <c r="E75" s="3">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>46</v>
@@ -2725,7 +2782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="36"/>
       <c r="B76" s="3">
         <v>8</v>
@@ -2734,10 +2791,11 @@
         <v>24</v>
       </c>
       <c r="D76" s="3">
-        <v>582</v>
+        <f t="shared" si="2"/>
+        <v>322</v>
       </c>
       <c r="E76" s="3">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>60</v>
@@ -2746,7 +2804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="36"/>
       <c r="B77" s="3">
         <v>9</v>
@@ -2755,10 +2813,11 @@
         <v>26</v>
       </c>
       <c r="D77" s="3">
-        <v>311</v>
+        <f t="shared" si="2"/>
+        <v>361</v>
       </c>
       <c r="E77" s="3">
-        <v>339</v>
+        <v>409</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>60</v>
@@ -2767,7 +2826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="36"/>
       <c r="B78" s="3">
         <v>10</v>
@@ -2776,10 +2835,11 @@
         <v>28</v>
       </c>
       <c r="D78" s="3">
-        <v>340</v>
+        <f t="shared" si="2"/>
+        <v>410</v>
       </c>
       <c r="E78" s="3">
-        <v>368</v>
+        <v>438</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>60</v>
@@ -2788,7 +2848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="36"/>
       <c r="B79" s="3">
         <v>11</v>
@@ -2797,10 +2857,11 @@
         <v>30</v>
       </c>
       <c r="D79" s="3">
-        <v>369</v>
+        <f t="shared" si="2"/>
+        <v>439</v>
       </c>
       <c r="E79" s="3">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>60</v>
@@ -2809,7 +2870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="36"/>
       <c r="B80" s="3">
         <v>12</v>
@@ -2818,10 +2879,11 @@
         <v>32</v>
       </c>
       <c r="D80" s="3">
-        <v>428</v>
+        <f t="shared" si="2"/>
+        <v>498</v>
       </c>
       <c r="E80" s="3">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>46</v>
@@ -2830,7 +2892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="36"/>
       <c r="B81" s="3">
         <v>13</v>
@@ -2839,10 +2901,11 @@
         <v>34</v>
       </c>
       <c r="D81" s="3">
-        <v>457</v>
+        <f t="shared" si="2"/>
+        <v>527</v>
       </c>
       <c r="E81" s="3">
-        <v>515</v>
+        <v>585</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>60</v>
@@ -2851,7 +2914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="36"/>
       <c r="B82" s="3">
         <v>14</v>
@@ -2860,10 +2923,11 @@
         <v>36</v>
       </c>
       <c r="D82" s="3">
-        <v>516</v>
+        <f t="shared" si="2"/>
+        <v>586</v>
       </c>
       <c r="E82" s="3">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>60</v>
@@ -2872,7 +2936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="36"/>
       <c r="B83" s="3">
         <v>15</v>
@@ -2881,10 +2945,11 @@
         <v>38</v>
       </c>
       <c r="D83" s="3">
-        <v>555</v>
+        <f t="shared" si="2"/>
+        <v>615</v>
       </c>
       <c r="E83" s="3">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>60</v>
@@ -2893,7 +2958,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="36"/>
       <c r="B84" s="3">
         <v>16</v>
@@ -2902,10 +2967,11 @@
         <v>40</v>
       </c>
       <c r="D84" s="3">
-        <v>594</v>
+        <f t="shared" si="2"/>
+        <v>674</v>
       </c>
       <c r="E84" s="3">
-        <v>632</v>
+        <v>732</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>46</v>
@@ -2914,7 +2980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="36"/>
       <c r="B85" s="3">
         <v>17</v>
@@ -2923,10 +2989,11 @@
         <v>42</v>
       </c>
       <c r="D85" s="3">
-        <v>633</v>
+        <f t="shared" si="2"/>
+        <v>733</v>
       </c>
       <c r="E85" s="3">
-        <v>671</v>
+        <v>761</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>46</v>
@@ -2935,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="36"/>
       <c r="B86" s="3">
         <v>18</v>
@@ -2944,10 +3011,11 @@
         <v>44</v>
       </c>
       <c r="D86" s="3">
-        <v>372</v>
+        <f t="shared" si="2"/>
+        <v>762</v>
       </c>
       <c r="E86" s="3">
-        <v>700</v>
+        <v>820</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>46</v>
@@ -2956,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="36"/>
       <c r="B87" s="3">
         <v>19</v>
@@ -2965,10 +3033,11 @@
         <v>47</v>
       </c>
       <c r="D87" s="3">
-        <v>701</v>
+        <f t="shared" si="2"/>
+        <v>821</v>
       </c>
       <c r="E87" s="3">
-        <v>729</v>
+        <v>879</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>60</v>
@@ -2977,7 +3046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="36"/>
       <c r="B88" s="3">
         <v>20</v>
@@ -2986,10 +3055,11 @@
         <v>49</v>
       </c>
       <c r="D88" s="3">
-        <v>730</v>
+        <f t="shared" si="2"/>
+        <v>880</v>
       </c>
       <c r="E88" s="3">
-        <v>768</v>
+        <v>938</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>60</v>
@@ -2998,7 +3068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="37"/>
       <c r="B89" s="15">
         <v>21</v>
@@ -3006,11 +3076,12 @@
       <c r="C89" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="15">
-        <v>769</v>
+      <c r="D89" s="3">
+        <f t="shared" si="2"/>
+        <v>939</v>
       </c>
       <c r="E89" s="15">
-        <v>807</v>
+        <v>977</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>60</v>
@@ -3019,7 +3090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="32" t="s">
         <v>62</v>
       </c>
@@ -3032,7 +3103,7 @@
       <c r="D90" s="17">
         <v>0</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="12">
         <v>58</v>
       </c>
       <c r="F90" s="17" t="s">
@@ -3042,7 +3113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="33"/>
       <c r="B91" s="2">
         <v>1</v>
@@ -3051,10 +3122,11 @@
         <v>8</v>
       </c>
       <c r="D91" s="2">
+        <f>E90+1</f>
         <v>59</v>
       </c>
-      <c r="E91" s="2">
-        <v>77</v>
+      <c r="E91" s="3">
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>60</v>
@@ -3063,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="33"/>
       <c r="B92" s="2">
         <v>2</v>
@@ -3072,10 +3144,11 @@
         <v>10</v>
       </c>
       <c r="D92" s="2">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2">
-        <v>116</v>
+        <f t="shared" ref="D92:D111" si="3">E91+1</f>
+        <v>88</v>
+      </c>
+      <c r="E92" s="3">
+        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>60</v>
@@ -3084,7 +3157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="33"/>
       <c r="B93" s="2">
         <v>3</v>
@@ -3093,19 +3166,20 @@
         <v>12</v>
       </c>
       <c r="D93" s="2">
-        <v>117</v>
-      </c>
-      <c r="E93" s="2">
-        <v>155</v>
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="E93" s="3">
+        <v>165</v>
       </c>
       <c r="F93" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G93" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="33"/>
       <c r="B94" s="2">
         <v>4</v>
@@ -3114,19 +3188,20 @@
         <v>14</v>
       </c>
       <c r="D94" s="2">
-        <v>156</v>
-      </c>
-      <c r="E94" s="2">
-        <v>194</v>
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="E94" s="3">
+        <v>204</v>
       </c>
       <c r="F94" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G94" s="4">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="33"/>
       <c r="B95" s="2">
         <v>5</v>
@@ -3135,10 +3210,11 @@
         <v>17</v>
       </c>
       <c r="D95" s="2">
-        <v>195</v>
-      </c>
-      <c r="E95" s="2">
-        <v>223</v>
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="E95" s="3">
+        <v>263</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>7</v>
@@ -3147,7 +3223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="33"/>
       <c r="B96" s="2">
         <v>6</v>
@@ -3156,10 +3232,11 @@
         <v>20</v>
       </c>
       <c r="D96" s="2">
-        <v>224</v>
-      </c>
-      <c r="E96" s="2">
-        <v>252</v>
+        <f t="shared" si="3"/>
+        <v>264</v>
+      </c>
+      <c r="E96" s="3">
+        <v>292</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>60</v>
@@ -3168,7 +3245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="33"/>
       <c r="B97" s="2">
         <v>7</v>
@@ -3177,10 +3254,11 @@
         <v>22</v>
       </c>
       <c r="D97" s="2">
-        <v>253</v>
-      </c>
-      <c r="E97" s="2">
-        <v>281</v>
+        <f t="shared" si="3"/>
+        <v>293</v>
+      </c>
+      <c r="E97" s="3">
+        <v>321</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>7</v>
@@ -3189,7 +3267,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="33"/>
       <c r="B98" s="2">
         <v>8</v>
@@ -3198,10 +3276,11 @@
         <v>24</v>
       </c>
       <c r="D98" s="2">
-        <v>582</v>
-      </c>
-      <c r="E98" s="2">
-        <v>310</v>
+        <f t="shared" si="3"/>
+        <v>322</v>
+      </c>
+      <c r="E98" s="3">
+        <v>360</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>60</v>
@@ -3210,7 +3289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="33"/>
       <c r="B99" s="2">
         <v>9</v>
@@ -3219,10 +3298,11 @@
         <v>26</v>
       </c>
       <c r="D99" s="2">
-        <v>311</v>
-      </c>
-      <c r="E99" s="2">
-        <v>339</v>
+        <f t="shared" si="3"/>
+        <v>361</v>
+      </c>
+      <c r="E99" s="3">
+        <v>409</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>60</v>
@@ -3231,7 +3311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="33"/>
       <c r="B100" s="2">
         <v>10</v>
@@ -3240,10 +3320,11 @@
         <v>28</v>
       </c>
       <c r="D100" s="2">
-        <v>340</v>
-      </c>
-      <c r="E100" s="2">
-        <v>368</v>
+        <f t="shared" si="3"/>
+        <v>410</v>
+      </c>
+      <c r="E100" s="3">
+        <v>438</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>60</v>
@@ -3252,7 +3333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="33"/>
       <c r="B101" s="2">
         <v>11</v>
@@ -3261,10 +3342,11 @@
         <v>30</v>
       </c>
       <c r="D101" s="2">
-        <v>369</v>
-      </c>
-      <c r="E101" s="2">
-        <v>427</v>
+        <f t="shared" si="3"/>
+        <v>439</v>
+      </c>
+      <c r="E101" s="3">
+        <v>497</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>60</v>
@@ -3273,7 +3355,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="33"/>
       <c r="B102" s="2">
         <v>12</v>
@@ -3282,10 +3364,11 @@
         <v>32</v>
       </c>
       <c r="D102" s="2">
-        <v>428</v>
-      </c>
-      <c r="E102" s="2">
-        <v>456</v>
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+      <c r="E102" s="3">
+        <v>526</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>7</v>
@@ -3294,7 +3377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="33"/>
       <c r="B103" s="2">
         <v>13</v>
@@ -3303,10 +3386,11 @@
         <v>34</v>
       </c>
       <c r="D103" s="2">
-        <v>457</v>
-      </c>
-      <c r="E103" s="2">
-        <v>515</v>
+        <f t="shared" si="3"/>
+        <v>527</v>
+      </c>
+      <c r="E103" s="3">
+        <v>585</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>60</v>
@@ -3315,7 +3399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="33"/>
       <c r="B104" s="2">
         <v>14</v>
@@ -3324,10 +3408,11 @@
         <v>36</v>
       </c>
       <c r="D104" s="2">
-        <v>516</v>
-      </c>
-      <c r="E104" s="2">
-        <v>554</v>
+        <f t="shared" si="3"/>
+        <v>586</v>
+      </c>
+      <c r="E104" s="3">
+        <v>614</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>60</v>
@@ -3336,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="33"/>
       <c r="B105" s="2">
         <v>15</v>
@@ -3345,10 +3430,11 @@
         <v>38</v>
       </c>
       <c r="D105" s="2">
-        <v>555</v>
-      </c>
-      <c r="E105" s="2">
-        <v>593</v>
+        <f t="shared" si="3"/>
+        <v>615</v>
+      </c>
+      <c r="E105" s="3">
+        <v>673</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>60</v>
@@ -3357,7 +3443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="33"/>
       <c r="B106" s="2">
         <v>16</v>
@@ -3366,10 +3452,11 @@
         <v>40</v>
       </c>
       <c r="D106" s="2">
-        <v>594</v>
-      </c>
-      <c r="E106" s="2">
-        <v>632</v>
+        <f t="shared" si="3"/>
+        <v>674</v>
+      </c>
+      <c r="E106" s="3">
+        <v>732</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>7</v>
@@ -3378,7 +3465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="33"/>
       <c r="B107" s="2">
         <v>17</v>
@@ -3387,10 +3474,11 @@
         <v>42</v>
       </c>
       <c r="D107" s="2">
-        <v>633</v>
-      </c>
-      <c r="E107" s="2">
-        <v>671</v>
+        <f t="shared" si="3"/>
+        <v>733</v>
+      </c>
+      <c r="E107" s="3">
+        <v>761</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>7</v>
@@ -3399,7 +3487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="33"/>
       <c r="B108" s="2">
         <v>18</v>
@@ -3408,10 +3496,11 @@
         <v>44</v>
       </c>
       <c r="D108" s="2">
-        <v>372</v>
-      </c>
-      <c r="E108" s="2">
-        <v>700</v>
+        <f t="shared" si="3"/>
+        <v>762</v>
+      </c>
+      <c r="E108" s="3">
+        <v>820</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>7</v>
@@ -3420,7 +3509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="33"/>
       <c r="B109" s="2">
         <v>19</v>
@@ -3429,10 +3518,11 @@
         <v>47</v>
       </c>
       <c r="D109" s="2">
-        <v>701</v>
-      </c>
-      <c r="E109" s="2">
-        <v>729</v>
+        <f t="shared" si="3"/>
+        <v>821</v>
+      </c>
+      <c r="E109" s="3">
+        <v>879</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>60</v>
@@ -3441,7 +3531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="33"/>
       <c r="B110" s="2">
         <v>20</v>
@@ -3450,10 +3540,11 @@
         <v>49</v>
       </c>
       <c r="D110" s="2">
-        <v>730</v>
-      </c>
-      <c r="E110" s="2">
-        <v>768</v>
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+      <c r="E110" s="3">
+        <v>938</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>60</v>
@@ -3462,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="34"/>
       <c r="B111" s="5">
         <v>21</v>
@@ -3470,11 +3561,12 @@
       <c r="C111" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="5">
-        <v>769</v>
-      </c>
-      <c r="E111" s="5">
-        <v>807</v>
+      <c r="D111" s="2">
+        <f t="shared" si="3"/>
+        <v>939</v>
+      </c>
+      <c r="E111" s="15">
+        <v>977</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>60</v>
@@ -3483,7 +3575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="22" t="s">
         <v>63</v>
       </c>
@@ -3506,7 +3598,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
       <c r="B113" s="1">
         <v>1</v>
@@ -3527,7 +3619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
       <c r="B114" s="1">
         <v>2</v>
@@ -3548,7 +3640,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
       <c r="B115" s="1">
         <v>3</v>
@@ -3569,7 +3661,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A116" s="24"/>
       <c r="B116" s="1">
         <v>4</v>
@@ -3590,7 +3682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A117" s="25" t="s">
         <v>71</v>
       </c>
@@ -3613,7 +3705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
       <c r="B118" s="1">
         <v>1</v>
@@ -3634,7 +3726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
       <c r="B119" s="1">
         <v>2</v>
@@ -3655,7 +3747,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
       <c r="B120" s="1">
         <v>3</v>
@@ -3676,7 +3768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A121" s="24"/>
       <c r="B121" s="1">
         <v>4</v>
@@ -3697,7 +3789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A122" s="25" t="s">
         <v>72</v>
       </c>
@@ -3720,7 +3812,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
       <c r="B123" s="1">
         <v>1</v>
@@ -3741,7 +3833,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
       <c r="B124" s="1">
         <v>2</v>
@@ -3762,7 +3854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="1">
         <v>3</v>
@@ -3783,7 +3875,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="1">
         <v>4</v>
@@ -3804,7 +3896,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="1">
         <v>5</v>
@@ -3825,7 +3917,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
       <c r="B128" s="1">
         <v>6</v>
@@ -3846,7 +3938,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
       <c r="B129" s="1">
         <v>7</v>
@@ -3867,7 +3959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
       <c r="B130" s="1">
         <v>8</v>
@@ -3888,7 +3980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
       <c r="B131" s="1">
         <v>9</v>
@@ -3909,7 +4001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A132" s="24"/>
       <c r="B132" s="1">
         <v>10</v>
@@ -3954,7 +4046,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3967,7 +4059,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1135,20 +1135,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>52</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>53</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="2">
         <v>2</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="2">
         <v>3</v>
@@ -1257,7 +1257,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="2">
         <v>4</v>
@@ -1278,7 +1278,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="2">
         <v>5</v>
@@ -1299,7 +1299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="2">
         <v>6</v>
@@ -1320,7 +1320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="2">
         <v>7</v>
@@ -1341,7 +1341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="2">
         <v>8</v>
@@ -1362,7 +1362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="2">
         <v>9</v>
@@ -1383,7 +1383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="2">
         <v>10</v>
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="2">
         <v>11</v>
@@ -1425,7 +1425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="2">
         <v>12</v>
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="2">
         <v>13</v>
@@ -1467,7 +1467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="2">
         <v>14</v>
@@ -1488,7 +1488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="2">
         <v>15</v>
@@ -1509,7 +1509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="2">
         <v>16</v>
@@ -1530,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="2">
         <v>17</v>
@@ -1551,7 +1551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="2">
         <v>18</v>
@@ -1572,7 +1572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="2">
         <v>19</v>
@@ -1593,7 +1593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="2">
         <v>20</v>
@@ -1614,7 +1614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="5">
         <v>21</v>
@@ -1635,7 +1635,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="30"/>
       <c r="B25" s="3">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="30"/>
       <c r="B26" s="3">
         <v>2</v>
@@ -1702,7 +1702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="30"/>
       <c r="B27" s="3">
         <v>3</v>
@@ -1724,7 +1724,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="30"/>
       <c r="B28" s="3">
         <v>4</v>
@@ -1746,7 +1746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="30"/>
       <c r="B29" s="3">
         <v>5</v>
@@ -1768,7 +1768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="3">
         <v>6</v>
@@ -1790,7 +1790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="30"/>
       <c r="B31" s="3">
         <v>7</v>
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="3">
         <v>8</v>
@@ -1821,8 +1821,7 @@
         <v>25</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="0"/>
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="E32" s="3">
         <v>360</v>
@@ -1834,7 +1833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="30"/>
       <c r="B33" s="3">
         <v>9</v>
@@ -1856,7 +1855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="30"/>
       <c r="B34" s="3">
         <v>10</v>
@@ -1878,7 +1877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
       <c r="B35" s="3">
         <v>11</v>
@@ -1900,7 +1899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
       <c r="B36" s="3">
         <v>12</v>
@@ -1922,7 +1921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="30"/>
       <c r="B37" s="3">
         <v>13</v>
@@ -1944,7 +1943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="30"/>
       <c r="B38" s="3">
         <v>14</v>
@@ -1966,7 +1965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="30"/>
       <c r="B39" s="3">
         <v>15</v>
@@ -1988,7 +1987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="30"/>
       <c r="B40" s="3">
         <v>16</v>
@@ -2010,7 +2009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="B41" s="3">
         <v>17</v>
@@ -2032,7 +2031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="B42" s="3">
         <v>18</v>
@@ -2054,7 +2053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="B43" s="3">
         <v>19</v>
@@ -2076,7 +2075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="30"/>
       <c r="B44" s="3">
         <v>20</v>
@@ -2098,7 +2097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="15">
         <v>21</v>
@@ -2120,7 +2119,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
         <v>57</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="7">
         <v>1</v>
@@ -2165,7 +2164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="7">
         <v>2</v>
@@ -2187,7 +2186,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="7">
         <v>3</v>
@@ -2209,7 +2208,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="7">
         <v>4</v>
@@ -2231,7 +2230,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="7">
         <v>5</v>
@@ -2253,7 +2252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="7">
         <v>6</v>
@@ -2275,7 +2274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="7">
         <v>7</v>
@@ -2297,7 +2296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="7">
         <v>8</v>
@@ -2306,8 +2305,7 @@
         <v>24</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="1"/>
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="E54" s="2">
         <v>360</v>
@@ -2319,7 +2317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="7">
         <v>9</v>
@@ -2341,7 +2339,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="7">
         <v>10</v>
@@ -2363,7 +2361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="33"/>
       <c r="B57" s="7">
         <v>11</v>
@@ -2385,7 +2383,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="33"/>
       <c r="B58" s="7">
         <v>12</v>
@@ -2407,7 +2405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="33"/>
       <c r="B59" s="7">
         <v>13</v>
@@ -2429,7 +2427,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="33"/>
       <c r="B60" s="7">
         <v>14</v>
@@ -2451,7 +2449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="33"/>
       <c r="B61" s="7">
         <v>15</v>
@@ -2473,7 +2471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="33"/>
       <c r="B62" s="7">
         <v>16</v>
@@ -2495,7 +2493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="7">
         <v>17</v>
@@ -2517,7 +2515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="33"/>
       <c r="B64" s="7">
         <v>18</v>
@@ -2539,7 +2537,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="7">
         <v>19</v>
@@ -2561,7 +2559,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="33"/>
       <c r="B66" s="7">
         <v>20</v>
@@ -2583,7 +2581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
       <c r="B67" s="19">
         <v>21</v>
@@ -2605,7 +2603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="35" t="s">
         <v>61</v>
       </c>
@@ -2628,7 +2626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="36"/>
       <c r="B69" s="3">
         <v>1</v>
@@ -2650,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="36"/>
       <c r="B70" s="3">
         <v>2</v>
@@ -2672,7 +2670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="36"/>
       <c r="B71" s="3">
         <v>3</v>
@@ -2694,7 +2692,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="36"/>
       <c r="B72" s="3">
         <v>4</v>
@@ -2716,7 +2714,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="36"/>
       <c r="B73" s="3">
         <v>5</v>
@@ -2738,7 +2736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="36"/>
       <c r="B74" s="3">
         <v>6</v>
@@ -2760,7 +2758,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="36"/>
       <c r="B75" s="3">
         <v>7</v>
@@ -2782,7 +2780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="36"/>
       <c r="B76" s="3">
         <v>8</v>
@@ -2791,8 +2789,7 @@
         <v>24</v>
       </c>
       <c r="D76" s="3">
-        <f t="shared" si="2"/>
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E76" s="3">
         <v>360</v>
@@ -2804,7 +2801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="36"/>
       <c r="B77" s="3">
         <v>9</v>
@@ -2826,7 +2823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="36"/>
       <c r="B78" s="3">
         <v>10</v>
@@ -2835,7 +2832,7 @@
         <v>28</v>
       </c>
       <c r="D78" s="3">
-        <f t="shared" si="2"/>
+        <f>E77+1</f>
         <v>410</v>
       </c>
       <c r="E78" s="3">
@@ -2848,7 +2845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="36"/>
       <c r="B79" s="3">
         <v>11</v>
@@ -2870,7 +2867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="36"/>
       <c r="B80" s="3">
         <v>12</v>
@@ -2892,7 +2889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="36"/>
       <c r="B81" s="3">
         <v>13</v>
@@ -2914,7 +2911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="36"/>
       <c r="B82" s="3">
         <v>14</v>
@@ -2936,7 +2933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="36"/>
       <c r="B83" s="3">
         <v>15</v>
@@ -2958,7 +2955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="36"/>
       <c r="B84" s="3">
         <v>16</v>
@@ -2980,7 +2977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="36"/>
       <c r="B85" s="3">
         <v>17</v>
@@ -3002,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="36"/>
       <c r="B86" s="3">
         <v>18</v>
@@ -3024,7 +3021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="36"/>
       <c r="B87" s="3">
         <v>19</v>
@@ -3046,7 +3043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="36"/>
       <c r="B88" s="3">
         <v>20</v>
@@ -3068,7 +3065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
       <c r="B89" s="15">
         <v>21</v>
@@ -3090,7 +3087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="32" t="s">
         <v>62</v>
       </c>
@@ -3113,7 +3110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="33"/>
       <c r="B91" s="2">
         <v>1</v>
@@ -3135,7 +3132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="33"/>
       <c r="B92" s="2">
         <v>2</v>
@@ -3157,7 +3154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="33"/>
       <c r="B93" s="2">
         <v>3</v>
@@ -3179,7 +3176,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="33"/>
       <c r="B94" s="2">
         <v>4</v>
@@ -3201,7 +3198,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="2">
         <v>5</v>
@@ -3223,7 +3220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="2">
         <v>6</v>
@@ -3245,7 +3242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="33"/>
       <c r="B97" s="2">
         <v>7</v>
@@ -3267,7 +3264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="33"/>
       <c r="B98" s="2">
         <v>8</v>
@@ -3276,8 +3273,7 @@
         <v>24</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" si="3"/>
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="E98" s="3">
         <v>360</v>
@@ -3289,7 +3285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="33"/>
       <c r="B99" s="2">
         <v>9</v>
@@ -3311,7 +3307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="33"/>
       <c r="B100" s="2">
         <v>10</v>
@@ -3333,7 +3329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="33"/>
       <c r="B101" s="2">
         <v>11</v>
@@ -3355,7 +3351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="33"/>
       <c r="B102" s="2">
         <v>12</v>
@@ -3377,7 +3373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="33"/>
       <c r="B103" s="2">
         <v>13</v>
@@ -3399,7 +3395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="33"/>
       <c r="B104" s="2">
         <v>14</v>
@@ -3421,7 +3417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="33"/>
       <c r="B105" s="2">
         <v>15</v>
@@ -3443,7 +3439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="33"/>
       <c r="B106" s="2">
         <v>16</v>
@@ -3465,7 +3461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="33"/>
       <c r="B107" s="2">
         <v>17</v>
@@ -3487,7 +3483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="33"/>
       <c r="B108" s="2">
         <v>18</v>
@@ -3509,7 +3505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="33"/>
       <c r="B109" s="2">
         <v>19</v>
@@ -3531,7 +3527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="33"/>
       <c r="B110" s="2">
         <v>20</v>
@@ -3553,7 +3549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="34"/>
       <c r="B111" s="5">
         <v>21</v>
@@ -3575,7 +3571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="22" t="s">
         <v>63</v>
       </c>
@@ -3598,7 +3594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="23"/>
       <c r="B113" s="1">
         <v>1</v>
@@ -3619,7 +3615,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="23"/>
       <c r="B114" s="1">
         <v>2</v>
@@ -3640,7 +3636,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="23"/>
       <c r="B115" s="1">
         <v>3</v>
@@ -3661,7 +3657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="24"/>
       <c r="B116" s="1">
         <v>4</v>
@@ -3682,7 +3678,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
         <v>71</v>
       </c>
@@ -3705,7 +3701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="23"/>
       <c r="B118" s="1">
         <v>1</v>
@@ -3726,7 +3722,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="23"/>
       <c r="B119" s="1">
         <v>2</v>
@@ -3747,7 +3743,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="23"/>
       <c r="B120" s="1">
         <v>3</v>
@@ -3768,7 +3764,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="24"/>
       <c r="B121" s="1">
         <v>4</v>
@@ -3789,7 +3785,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
         <v>72</v>
       </c>
@@ -3812,7 +3808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="23"/>
       <c r="B123" s="1">
         <v>1</v>
@@ -3833,7 +3829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="23"/>
       <c r="B124" s="1">
         <v>2</v>
@@ -3854,7 +3850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="23"/>
       <c r="B125" s="1">
         <v>3</v>
@@ -3875,7 +3871,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="23"/>
       <c r="B126" s="1">
         <v>4</v>
@@ -3896,7 +3892,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="23"/>
       <c r="B127" s="1">
         <v>5</v>
@@ -3917,7 +3913,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="23"/>
       <c r="B128" s="1">
         <v>6</v>
@@ -3938,7 +3934,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="23"/>
       <c r="B129" s="1">
         <v>7</v>
@@ -3959,7 +3955,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="23"/>
       <c r="B130" s="1">
         <v>8</v>
@@ -3980,7 +3976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="23"/>
       <c r="B131" s="1">
         <v>9</v>
@@ -4001,7 +3997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="24"/>
       <c r="B132" s="1">
         <v>10</v>
@@ -4046,7 +4042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4059,7 +4055,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="93">
   <si>
     <t>モーション内容</t>
     <phoneticPr fontId="1"/>
@@ -391,6 +391,42 @@
   </si>
   <si>
     <t>ファイター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近距離攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -456,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -727,7 +763,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -737,18 +773,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -761,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -784,18 +809,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,6 +844,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1220,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="7">
@@ -1195,7 +1243,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1216,7 +1264,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1237,7 +1285,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1258,7 +1306,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1279,7 +1327,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1300,7 +1348,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="27"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1321,7 +1369,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1342,7 +1390,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1363,7 +1411,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1384,7 +1432,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1405,7 +1453,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1426,7 +1474,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1447,7 +1495,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1468,7 +1516,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1489,7 +1537,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1510,7 +1558,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1531,7 +1579,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1552,7 +1600,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1573,7 +1621,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1594,7 +1642,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1615,7 +1663,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -1636,7 +1684,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="12">
@@ -1659,7 +1707,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="3">
         <v>1</v>
       </c>
@@ -1681,7 +1729,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -1703,7 +1751,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -1725,7 +1773,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="3">
         <v>4</v>
       </c>
@@ -1747,7 +1795,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="30"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1769,7 +1817,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="30"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="3">
         <v>6</v>
       </c>
@@ -1791,7 +1839,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="30"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="3">
         <v>7</v>
       </c>
@@ -1813,7 +1861,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="30"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -1835,7 +1883,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="3">
         <v>9</v>
       </c>
@@ -1857,7 +1905,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="3">
         <v>10</v>
       </c>
@@ -1879,7 +1927,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="3">
         <v>11</v>
       </c>
@@ -1901,7 +1949,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="3">
         <v>12</v>
       </c>
@@ -1923,7 +1971,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="3">
         <v>13</v>
       </c>
@@ -1945,7 +1993,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="3">
         <v>14</v>
       </c>
@@ -1967,7 +2015,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="3">
         <v>15</v>
       </c>
@@ -1989,7 +2037,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="30"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="3">
         <v>16</v>
       </c>
@@ -2011,7 +2059,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="30"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="3">
         <v>17</v>
       </c>
@@ -2033,7 +2081,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="3">
         <v>18</v>
       </c>
@@ -2055,7 +2103,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="3">
         <v>19</v>
       </c>
@@ -2077,7 +2125,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="3">
         <v>20</v>
       </c>
@@ -2099,7 +2147,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="15">
         <v>21</v>
       </c>
@@ -2121,7 +2169,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="17">
@@ -2144,7 +2192,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="7">
         <v>1</v>
       </c>
@@ -2166,7 +2214,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="7">
         <v>2</v>
       </c>
@@ -2188,7 +2236,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="7">
         <v>3</v>
       </c>
@@ -2210,7 +2258,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="7">
         <v>4</v>
       </c>
@@ -2232,7 +2280,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="7">
         <v>5</v>
       </c>
@@ -2254,7 +2302,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="7">
         <v>6</v>
       </c>
@@ -2276,7 +2324,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="7">
         <v>7</v>
       </c>
@@ -2298,7 +2346,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="7">
         <v>8</v>
       </c>
@@ -2320,7 +2368,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="33"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="7">
         <v>9</v>
       </c>
@@ -2342,7 +2390,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="7">
         <v>10</v>
       </c>
@@ -2364,7 +2412,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="7">
         <v>11</v>
       </c>
@@ -2386,7 +2434,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="7">
         <v>12</v>
       </c>
@@ -2408,7 +2456,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="33"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="7">
         <v>13</v>
       </c>
@@ -2430,7 +2478,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="33"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="7">
         <v>14</v>
       </c>
@@ -2452,7 +2500,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="33"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="7">
         <v>15</v>
       </c>
@@ -2474,7 +2522,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="33"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="7">
         <v>16</v>
       </c>
@@ -2496,7 +2544,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="33"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="7">
         <v>17</v>
       </c>
@@ -2518,7 +2566,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="33"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="7">
         <v>18</v>
       </c>
@@ -2540,7 +2588,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="33"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="7">
         <v>19</v>
       </c>
@@ -2562,7 +2610,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="33"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="7">
         <v>20</v>
       </c>
@@ -2584,7 +2632,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="19">
         <v>21</v>
       </c>
@@ -2606,7 +2654,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B68" s="12">
@@ -2629,7 +2677,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="36"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="3">
         <v>1</v>
       </c>
@@ -2651,7 +2699,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="36"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="3">
         <v>2</v>
       </c>
@@ -2673,7 +2721,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="36"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="3">
         <v>3</v>
       </c>
@@ -2695,7 +2743,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="36"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="3">
         <v>4</v>
       </c>
@@ -2717,7 +2765,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="36"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="3">
         <v>5</v>
       </c>
@@ -2739,7 +2787,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="36"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="3">
         <v>6</v>
       </c>
@@ -2761,7 +2809,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="36"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="3">
         <v>7</v>
       </c>
@@ -2783,7 +2831,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="36"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="3">
         <v>8</v>
       </c>
@@ -2805,7 +2853,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="36"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="3">
         <v>9</v>
       </c>
@@ -2827,7 +2875,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="36"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="3">
         <v>10</v>
       </c>
@@ -2849,7 +2897,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="36"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="3">
         <v>11</v>
       </c>
@@ -2871,7 +2919,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="36"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="3">
         <v>12</v>
       </c>
@@ -2893,7 +2941,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="36"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="3">
         <v>13</v>
       </c>
@@ -2915,7 +2963,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="36"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="3">
         <v>14</v>
       </c>
@@ -2937,7 +2985,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="36"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="3">
         <v>15</v>
       </c>
@@ -2959,7 +3007,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="36"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="3">
         <v>16</v>
       </c>
@@ -2981,7 +3029,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="36"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="3">
         <v>17</v>
       </c>
@@ -3003,7 +3051,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="36"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="3">
         <v>18</v>
       </c>
@@ -3025,7 +3073,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="36"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="3">
         <v>19</v>
       </c>
@@ -3047,7 +3095,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="36"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="3">
         <v>20</v>
       </c>
@@ -3069,7 +3117,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
+      <c r="A89" s="33"/>
       <c r="B89" s="15">
         <v>21</v>
       </c>
@@ -3091,7 +3139,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="32" t="s">
+      <c r="A90" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B90" s="17">
@@ -3114,7 +3162,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="33"/>
+      <c r="A91" s="29"/>
       <c r="B91" s="2">
         <v>1</v>
       </c>
@@ -3136,7 +3184,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="33"/>
+      <c r="A92" s="29"/>
       <c r="B92" s="2">
         <v>2</v>
       </c>
@@ -3158,7 +3206,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="33"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="2">
         <v>3</v>
       </c>
@@ -3180,7 +3228,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="33"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="2">
         <v>4</v>
       </c>
@@ -3202,7 +3250,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="33"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="2">
         <v>5</v>
       </c>
@@ -3224,7 +3272,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="33"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="2">
         <v>6</v>
       </c>
@@ -3246,7 +3294,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="33"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="2">
         <v>7</v>
       </c>
@@ -3268,7 +3316,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="33"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="2">
         <v>8</v>
       </c>
@@ -3290,7 +3338,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="33"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="2">
         <v>9</v>
       </c>
@@ -3312,7 +3360,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="33"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="2">
         <v>10</v>
       </c>
@@ -3334,7 +3382,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="33"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="2">
         <v>11</v>
       </c>
@@ -3356,7 +3404,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="33"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="2">
         <v>12</v>
       </c>
@@ -3378,7 +3426,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="33"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="2">
         <v>13</v>
       </c>
@@ -3400,7 +3448,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="33"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="2">
         <v>14</v>
       </c>
@@ -3422,7 +3470,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="33"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="2">
         <v>15</v>
       </c>
@@ -3444,7 +3492,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="33"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="2">
         <v>16</v>
       </c>
@@ -3466,7 +3514,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="33"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="2">
         <v>17</v>
       </c>
@@ -3488,7 +3536,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="33"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="2">
         <v>18</v>
       </c>
@@ -3510,7 +3558,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="33"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="2">
         <v>19</v>
       </c>
@@ -3532,7 +3580,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="33"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="2">
         <v>20</v>
       </c>
@@ -3554,52 +3602,52 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
-      <c r="B111" s="5">
+      <c r="A111" s="29"/>
+      <c r="B111" s="34">
         <v>21</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="34">
         <f t="shared" si="3"/>
         <v>939</v>
       </c>
-      <c r="E111" s="15">
+      <c r="E111" s="35">
         <v>977</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="6" t="s">
+      <c r="F111" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="39">
         <v>0</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="39">
         <v>0</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="39">
         <v>78</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="40" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="23"/>
+      <c r="A113" s="41"/>
       <c r="B113" s="1">
         <v>1</v>
       </c>
@@ -3615,12 +3663,12 @@
       <c r="F113" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="23"/>
+      <c r="A114" s="41"/>
       <c r="B114" s="1">
         <v>2</v>
       </c>
@@ -3636,12 +3684,12 @@
       <c r="F114" s="1">
         <v>151</v>
       </c>
-      <c r="G114" s="1">
+      <c r="G114" s="42">
         <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="23"/>
+      <c r="A115" s="41"/>
       <c r="B115" s="1">
         <v>3</v>
       </c>
@@ -3657,56 +3705,56 @@
       <c r="F115" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A116" s="24"/>
-      <c r="B116" s="1">
+    <row r="116" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="43"/>
+      <c r="B116" s="19">
         <v>4</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="19">
         <v>256</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="19">
         <v>284</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="39">
         <v>0</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="39">
         <v>0</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="39">
         <v>150</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="23"/>
+      <c r="A118" s="41"/>
       <c r="B118" s="1">
         <v>1</v>
       </c>
@@ -3722,12 +3770,12 @@
       <c r="F118" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="23"/>
+      <c r="A119" s="41"/>
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -3743,12 +3791,12 @@
       <c r="F119" s="1">
         <v>200</v>
       </c>
-      <c r="G119" s="1">
+      <c r="G119" s="42">
         <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="23"/>
+      <c r="A120" s="41"/>
       <c r="B120" s="1">
         <v>3</v>
       </c>
@@ -3764,56 +3812,56 @@
       <c r="F120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="42" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A121" s="24"/>
-      <c r="B121" s="1">
+    <row r="121" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="43"/>
+      <c r="B121" s="19">
         <v>4</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="19">
         <v>339</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="19">
         <v>379</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="39">
         <v>0</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="39">
         <v>0</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="39">
         <v>120</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G122" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="23"/>
+      <c r="A123" s="41"/>
       <c r="B123" s="1">
         <v>1</v>
       </c>
@@ -3829,16 +3877,16 @@
       <c r="F123" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="23"/>
+      <c r="A124" s="41"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D124" s="1">
@@ -3850,12 +3898,12 @@
       <c r="F124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="23"/>
+      <c r="A125" s="41"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -3871,12 +3919,12 @@
       <c r="F125" s="1">
         <v>348</v>
       </c>
-      <c r="G125" s="1">
+      <c r="G125" s="42">
         <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="23"/>
+      <c r="A126" s="41"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -3892,12 +3940,12 @@
       <c r="F126" s="1">
         <v>440</v>
       </c>
-      <c r="G126" s="1">
+      <c r="G126" s="42">
         <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="23"/>
+      <c r="A127" s="41"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -3913,12 +3961,12 @@
       <c r="F127" s="1">
         <v>530</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="42">
         <v>575</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="23"/>
+      <c r="A128" s="41"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -3934,12 +3982,12 @@
       <c r="F128" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="23"/>
+      <c r="A129" s="41"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -3955,12 +4003,12 @@
       <c r="F129" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="G129" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="23"/>
+      <c r="A130" s="41"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -3976,12 +4024,12 @@
       <c r="F130" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G130" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="23"/>
+      <c r="A131" s="41"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -3997,33 +4045,154 @@
       <c r="F131" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="24"/>
-      <c r="B132" s="1">
+    <row r="132" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="43"/>
+      <c r="B132" s="19">
         <v>10</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="19">
         <v>1060</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="19">
         <v>1180</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="20" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A133" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B133" s="45">
+        <v>0</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D133" s="45">
+        <v>0</v>
+      </c>
+      <c r="E133" s="45">
+        <v>58</v>
+      </c>
+      <c r="F133" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="G133" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" s="41"/>
+      <c r="B134" s="47">
+        <v>1</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D134" s="47">
+        <f>E133+1</f>
+        <v>59</v>
+      </c>
+      <c r="E134" s="47">
+        <v>117</v>
+      </c>
+      <c r="F134" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G134" s="48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" s="41"/>
+      <c r="B135" s="47">
+        <v>2</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" s="47">
+        <f t="shared" ref="D135:D137" si="4">E134+1</f>
+        <v>118</v>
+      </c>
+      <c r="E135" s="47">
+        <v>176</v>
+      </c>
+      <c r="F135" s="47">
+        <v>138</v>
+      </c>
+      <c r="G135" s="48">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" s="41"/>
+      <c r="B136" s="47">
+        <v>3</v>
+      </c>
+      <c r="C136" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D136" s="47">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="E136" s="47">
+        <v>235</v>
+      </c>
+      <c r="F136" s="47">
+        <v>200</v>
+      </c>
+      <c r="G136" s="48">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="43"/>
+      <c r="B137" s="49">
+        <v>4</v>
+      </c>
+      <c r="C137" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="49">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="E137" s="49">
+        <v>294</v>
+      </c>
+      <c r="F137" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A138" s="37"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A133:A137"/>
     <mergeCell ref="A112:A116"/>
     <mergeCell ref="A117:A121"/>
     <mergeCell ref="A122:A132"/>

--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="93">
   <si>
     <t>モーション内容</t>
     <phoneticPr fontId="1"/>
@@ -492,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -649,19 +649,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -786,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -795,10 +782,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -809,58 +796,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -879,6 +821,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1220,7 +1198,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="7">
@@ -1243,7 +1221,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1264,7 +1242,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1285,7 +1263,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1306,7 +1284,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1327,7 +1305,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1348,7 +1326,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1369,7 +1347,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1390,7 +1368,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1411,7 +1389,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1432,7 +1410,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1453,7 +1431,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1474,7 +1452,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1495,7 +1473,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1516,7 +1494,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1537,7 +1515,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1558,7 +1536,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1579,7 +1557,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1600,7 +1578,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1621,7 +1599,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1642,7 +1620,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1663,7 +1641,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -1684,7 +1662,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="39" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="12">
@@ -1707,7 +1685,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="26"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="3">
         <v>1</v>
       </c>
@@ -1729,7 +1707,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -1751,7 +1729,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -1773,7 +1751,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="26"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="3">
         <v>4</v>
       </c>
@@ -1795,7 +1773,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1817,7 +1795,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="3">
         <v>6</v>
       </c>
@@ -1839,7 +1817,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="3">
         <v>7</v>
       </c>
@@ -1861,7 +1839,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -1875,15 +1853,15 @@
       <c r="E32" s="3">
         <v>360</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>7</v>
+      <c r="F32" s="3">
+        <v>335</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="3">
         <v>9</v>
       </c>
@@ -1905,7 +1883,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="3">
         <v>10</v>
       </c>
@@ -1927,7 +1905,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="3">
         <v>11</v>
       </c>
@@ -1949,7 +1927,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="3">
         <v>12</v>
       </c>
@@ -1971,7 +1949,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="3">
         <v>13</v>
       </c>
@@ -1993,7 +1971,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="26"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="3">
         <v>14</v>
       </c>
@@ -2015,7 +1993,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="3">
         <v>15</v>
       </c>
@@ -2037,7 +2015,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="26"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="3">
         <v>16</v>
       </c>
@@ -2059,7 +2037,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="26"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="3">
         <v>17</v>
       </c>
@@ -2081,7 +2059,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="26"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="3">
         <v>18</v>
       </c>
@@ -2103,7 +2081,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="3">
         <v>19</v>
       </c>
@@ -2125,7 +2103,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="26"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="3">
         <v>20</v>
       </c>
@@ -2147,7 +2125,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="15">
         <v>21</v>
       </c>
@@ -2169,7 +2147,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="17">
@@ -2192,7 +2170,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="29"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="7">
         <v>1</v>
       </c>
@@ -2214,7 +2192,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="7">
         <v>2</v>
       </c>
@@ -2236,7 +2214,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="29"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="7">
         <v>3</v>
       </c>
@@ -2258,7 +2236,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="29"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="7">
         <v>4</v>
       </c>
@@ -2280,7 +2258,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="29"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="7">
         <v>5</v>
       </c>
@@ -2302,7 +2280,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="29"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="7">
         <v>6</v>
       </c>
@@ -2324,7 +2302,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="29"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="7">
         <v>7</v>
       </c>
@@ -2346,7 +2324,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="29"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="7">
         <v>8</v>
       </c>
@@ -2360,15 +2338,15 @@
       <c r="E54" s="2">
         <v>360</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>60</v>
+      <c r="F54" s="2">
+        <v>330</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="29"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="7">
         <v>9</v>
       </c>
@@ -2382,15 +2360,16 @@
       <c r="E55" s="2">
         <v>389</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>60</v>
+      <c r="F55" s="2">
+        <f>-F76</f>
+        <v>-340</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="29"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="7">
         <v>10</v>
       </c>
@@ -2412,7 +2391,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="29"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="7">
         <v>11</v>
       </c>
@@ -2434,7 +2413,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="29"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="7">
         <v>12</v>
       </c>
@@ -2456,7 +2435,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="29"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="7">
         <v>13</v>
       </c>
@@ -2478,7 +2457,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="29"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="7">
         <v>14</v>
       </c>
@@ -2500,7 +2479,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="29"/>
+      <c r="A61" s="43"/>
       <c r="B61" s="7">
         <v>15</v>
       </c>
@@ -2522,7 +2501,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="29"/>
+      <c r="A62" s="43"/>
       <c r="B62" s="7">
         <v>16</v>
       </c>
@@ -2544,7 +2523,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="29"/>
+      <c r="A63" s="43"/>
       <c r="B63" s="7">
         <v>17</v>
       </c>
@@ -2566,7 +2545,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="29"/>
+      <c r="A64" s="43"/>
       <c r="B64" s="7">
         <v>18</v>
       </c>
@@ -2588,7 +2567,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="29"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="7">
         <v>19</v>
       </c>
@@ -2610,7 +2589,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="29"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="7">
         <v>20</v>
       </c>
@@ -2632,7 +2611,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
+      <c r="A67" s="44"/>
       <c r="B67" s="19">
         <v>21</v>
       </c>
@@ -2654,7 +2633,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B68" s="12">
@@ -2677,7 +2656,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="32"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="3">
         <v>1</v>
       </c>
@@ -2699,7 +2678,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70" s="32"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="3">
         <v>2</v>
       </c>
@@ -2721,7 +2700,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71" s="32"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="3">
         <v>3</v>
       </c>
@@ -2743,7 +2722,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72" s="32"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="3">
         <v>4</v>
       </c>
@@ -2765,7 +2744,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="32"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="3">
         <v>5</v>
       </c>
@@ -2787,7 +2766,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="32"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="3">
         <v>6</v>
       </c>
@@ -2809,7 +2788,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="32"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="3">
         <v>7</v>
       </c>
@@ -2831,7 +2810,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76" s="32"/>
+      <c r="A76" s="46"/>
       <c r="B76" s="3">
         <v>8</v>
       </c>
@@ -2845,15 +2824,15 @@
       <c r="E76" s="3">
         <v>360</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>60</v>
+      <c r="F76" s="3">
+        <v>340</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="32"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="3">
         <v>9</v>
       </c>
@@ -2875,7 +2854,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="32"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="3">
         <v>10</v>
       </c>
@@ -2897,7 +2876,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="32"/>
+      <c r="A79" s="46"/>
       <c r="B79" s="3">
         <v>11</v>
       </c>
@@ -2919,7 +2898,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="32"/>
+      <c r="A80" s="46"/>
       <c r="B80" s="3">
         <v>12</v>
       </c>
@@ -2941,7 +2920,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="32"/>
+      <c r="A81" s="46"/>
       <c r="B81" s="3">
         <v>13</v>
       </c>
@@ -2963,7 +2942,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="3">
         <v>14</v>
       </c>
@@ -2985,7 +2964,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="3">
         <v>15</v>
       </c>
@@ -3007,7 +2986,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="32"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="3">
         <v>16</v>
       </c>
@@ -3029,7 +3008,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="32"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="3">
         <v>17</v>
       </c>
@@ -3051,7 +3030,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="32"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="3">
         <v>18</v>
       </c>
@@ -3073,7 +3052,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A87" s="32"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="3">
         <v>19</v>
       </c>
@@ -3095,7 +3074,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A88" s="32"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="3">
         <v>20</v>
       </c>
@@ -3117,7 +3096,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="33"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="15">
         <v>21</v>
       </c>
@@ -3139,7 +3118,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="42" t="s">
         <v>62</v>
       </c>
       <c r="B90" s="17">
@@ -3162,7 +3141,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="2">
         <v>1</v>
       </c>
@@ -3184,7 +3163,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="2">
         <v>2</v>
       </c>
@@ -3206,7 +3185,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="2">
         <v>3</v>
       </c>
@@ -3228,7 +3207,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="2">
         <v>4</v>
       </c>
@@ -3250,7 +3229,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="2">
         <v>5</v>
       </c>
@@ -3272,7 +3251,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="2">
         <v>6</v>
       </c>
@@ -3294,7 +3273,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
+      <c r="A97" s="43"/>
       <c r="B97" s="2">
         <v>7</v>
       </c>
@@ -3316,7 +3295,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="29"/>
+      <c r="A98" s="43"/>
       <c r="B98" s="2">
         <v>8</v>
       </c>
@@ -3330,15 +3309,15 @@
       <c r="E98" s="3">
         <v>360</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>60</v>
+      <c r="F98" s="2">
+        <v>342</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="29"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="2">
         <v>9</v>
       </c>
@@ -3360,7 +3339,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="29"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="2">
         <v>10</v>
       </c>
@@ -3382,7 +3361,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="29"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="2">
         <v>11</v>
       </c>
@@ -3404,7 +3383,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="29"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="2">
         <v>12</v>
       </c>
@@ -3426,7 +3405,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="29"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="2">
         <v>13</v>
       </c>
@@ -3448,7 +3427,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="29"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="2">
         <v>14</v>
       </c>
@@ -3470,7 +3449,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="29"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="2">
         <v>15</v>
       </c>
@@ -3492,7 +3471,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="29"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="2">
         <v>16</v>
       </c>
@@ -3514,7 +3493,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="29"/>
+      <c r="A107" s="43"/>
       <c r="B107" s="2">
         <v>17</v>
       </c>
@@ -3536,7 +3515,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="29"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="2">
         <v>18</v>
       </c>
@@ -3558,7 +3537,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="29"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="2">
         <v>19</v>
       </c>
@@ -3580,7 +3559,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="29"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="2">
         <v>20</v>
       </c>
@@ -3602,52 +3581,52 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="29"/>
-      <c r="B111" s="34">
+      <c r="A111" s="43"/>
+      <c r="B111" s="22">
         <v>21</v>
       </c>
-      <c r="C111" s="34" t="s">
+      <c r="C111" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D111" s="34">
+      <c r="D111" s="22">
         <f t="shared" si="3"/>
         <v>939</v>
       </c>
-      <c r="E111" s="35">
+      <c r="E111" s="23">
         <v>977</v>
       </c>
-      <c r="F111" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="36" t="s">
+      <c r="F111" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="38" t="s">
+      <c r="A112" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="39">
+      <c r="B112" s="26">
         <v>0</v>
       </c>
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="39">
+      <c r="D112" s="26">
         <v>0</v>
       </c>
-      <c r="E112" s="39">
+      <c r="E112" s="26">
         <v>78</v>
       </c>
-      <c r="F112" s="39" t="s">
+      <c r="F112" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G112" s="40" t="s">
+      <c r="G112" s="27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A113" s="41"/>
+      <c r="A113" s="37"/>
       <c r="B113" s="1">
         <v>1</v>
       </c>
@@ -3663,12 +3642,12 @@
       <c r="F113" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G113" s="42" t="s">
+      <c r="G113" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A114" s="41"/>
+      <c r="A114" s="37"/>
       <c r="B114" s="1">
         <v>2</v>
       </c>
@@ -3684,12 +3663,12 @@
       <c r="F114" s="1">
         <v>151</v>
       </c>
-      <c r="G114" s="42">
+      <c r="G114" s="28">
         <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A115" s="41"/>
+      <c r="A115" s="37"/>
       <c r="B115" s="1">
         <v>3</v>
       </c>
@@ -3705,12 +3684,12 @@
       <c r="F115" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G115" s="42" t="s">
+      <c r="G115" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="43"/>
+      <c r="A116" s="38"/>
       <c r="B116" s="19">
         <v>4</v>
       </c>
@@ -3731,30 +3710,30 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="38" t="s">
+      <c r="A117" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B117" s="39">
+      <c r="B117" s="26">
         <v>0</v>
       </c>
-      <c r="C117" s="39" t="s">
+      <c r="C117" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="39">
+      <c r="D117" s="26">
         <v>0</v>
       </c>
-      <c r="E117" s="39">
+      <c r="E117" s="26">
         <v>150</v>
       </c>
-      <c r="F117" s="39" t="s">
+      <c r="F117" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="G117" s="40" t="s">
+      <c r="G117" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A118" s="41"/>
+      <c r="A118" s="37"/>
       <c r="B118" s="1">
         <v>1</v>
       </c>
@@ -3770,12 +3749,12 @@
       <c r="F118" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G118" s="42" t="s">
+      <c r="G118" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A119" s="41"/>
+      <c r="A119" s="37"/>
       <c r="B119" s="1">
         <v>2</v>
       </c>
@@ -3791,12 +3770,12 @@
       <c r="F119" s="1">
         <v>200</v>
       </c>
-      <c r="G119" s="42">
+      <c r="G119" s="28">
         <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A120" s="41"/>
+      <c r="A120" s="37"/>
       <c r="B120" s="1">
         <v>3</v>
       </c>
@@ -3812,12 +3791,12 @@
       <c r="F120" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G120" s="42" t="s">
+      <c r="G120" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="43"/>
+      <c r="A121" s="38"/>
       <c r="B121" s="19">
         <v>4</v>
       </c>
@@ -3838,30 +3817,30 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="38" t="s">
+      <c r="A122" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B122" s="39">
+      <c r="B122" s="26">
         <v>0</v>
       </c>
-      <c r="C122" s="44" t="s">
+      <c r="C122" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="39">
+      <c r="D122" s="26">
         <v>0</v>
       </c>
-      <c r="E122" s="39">
+      <c r="E122" s="26">
         <v>120</v>
       </c>
-      <c r="F122" s="39" t="s">
+      <c r="F122" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G122" s="40" t="s">
+      <c r="G122" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A123" s="41"/>
+      <c r="A123" s="37"/>
       <c r="B123" s="1">
         <v>1</v>
       </c>
@@ -3877,12 +3856,12 @@
       <c r="F123" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G123" s="42" t="s">
+      <c r="G123" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A124" s="41"/>
+      <c r="A124" s="37"/>
       <c r="B124" s="1">
         <v>2</v>
       </c>
@@ -3898,12 +3877,12 @@
       <c r="F124" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G124" s="42" t="s">
+      <c r="G124" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A125" s="41"/>
+      <c r="A125" s="37"/>
       <c r="B125" s="1">
         <v>3</v>
       </c>
@@ -3919,12 +3898,12 @@
       <c r="F125" s="1">
         <v>348</v>
       </c>
-      <c r="G125" s="42">
+      <c r="G125" s="28">
         <v>375</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A126" s="41"/>
+      <c r="A126" s="37"/>
       <c r="B126" s="1">
         <v>4</v>
       </c>
@@ -3940,12 +3919,12 @@
       <c r="F126" s="1">
         <v>440</v>
       </c>
-      <c r="G126" s="42">
+      <c r="G126" s="28">
         <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A127" s="41"/>
+      <c r="A127" s="37"/>
       <c r="B127" s="1">
         <v>5</v>
       </c>
@@ -3961,12 +3940,12 @@
       <c r="F127" s="1">
         <v>530</v>
       </c>
-      <c r="G127" s="42">
+      <c r="G127" s="28">
         <v>575</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A128" s="41"/>
+      <c r="A128" s="37"/>
       <c r="B128" s="1">
         <v>6</v>
       </c>
@@ -3982,12 +3961,12 @@
       <c r="F128" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G128" s="42" t="s">
+      <c r="G128" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A129" s="41"/>
+      <c r="A129" s="37"/>
       <c r="B129" s="1">
         <v>7</v>
       </c>
@@ -4003,12 +3982,12 @@
       <c r="F129" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G129" s="42" t="s">
+      <c r="G129" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A130" s="41"/>
+      <c r="A130" s="37"/>
       <c r="B130" s="1">
         <v>8</v>
       </c>
@@ -4024,12 +4003,12 @@
       <c r="F130" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G130" s="42" t="s">
+      <c r="G130" s="28" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A131" s="41"/>
+      <c r="A131" s="37"/>
       <c r="B131" s="1">
         <v>9</v>
       </c>
@@ -4045,12 +4024,12 @@
       <c r="F131" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G131" s="42" t="s">
+      <c r="G131" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="43"/>
+      <c r="A132" s="38"/>
       <c r="B132" s="19">
         <v>10</v>
       </c>
@@ -4071,132 +4050,132 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="38" t="s">
+      <c r="A133" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="45">
+      <c r="B133" s="30">
         <v>0</v>
       </c>
-      <c r="C133" s="45" t="s">
+      <c r="C133" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D133" s="45">
+      <c r="D133" s="30">
         <v>0</v>
       </c>
-      <c r="E133" s="45">
+      <c r="E133" s="30">
         <v>58</v>
       </c>
-      <c r="F133" s="45" t="s">
+      <c r="F133" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G133" s="46" t="s">
+      <c r="G133" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="41"/>
-      <c r="B134" s="47">
+      <c r="A134" s="37"/>
+      <c r="B134" s="32">
         <v>1</v>
       </c>
-      <c r="C134" s="47" t="s">
+      <c r="C134" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D134" s="47">
+      <c r="D134" s="32">
         <f>E133+1</f>
         <v>59</v>
       </c>
-      <c r="E134" s="47">
+      <c r="E134" s="32">
         <v>117</v>
       </c>
-      <c r="F134" s="47" t="s">
+      <c r="F134" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G134" s="48" t="s">
+      <c r="G134" s="33" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="41"/>
-      <c r="B135" s="47">
+      <c r="A135" s="37"/>
+      <c r="B135" s="32">
         <v>2</v>
       </c>
-      <c r="C135" s="47" t="s">
+      <c r="C135" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D135" s="47">
+      <c r="D135" s="32">
         <f t="shared" ref="D135:D137" si="4">E134+1</f>
         <v>118</v>
       </c>
-      <c r="E135" s="47">
+      <c r="E135" s="32">
         <v>176</v>
       </c>
-      <c r="F135" s="47">
+      <c r="F135" s="32">
         <v>138</v>
       </c>
-      <c r="G135" s="48">
+      <c r="G135" s="33">
         <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="41"/>
-      <c r="B136" s="47">
+      <c r="A136" s="37"/>
+      <c r="B136" s="32">
         <v>3</v>
       </c>
-      <c r="C136" s="47" t="s">
+      <c r="C136" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D136" s="47">
+      <c r="D136" s="32">
         <f t="shared" si="4"/>
         <v>177</v>
       </c>
-      <c r="E136" s="47">
+      <c r="E136" s="32">
         <v>235</v>
       </c>
-      <c r="F136" s="47">
+      <c r="F136" s="32">
         <v>200</v>
       </c>
-      <c r="G136" s="48">
+      <c r="G136" s="33">
         <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="43"/>
-      <c r="B137" s="49">
+      <c r="A137" s="38"/>
+      <c r="B137" s="34">
         <v>4</v>
       </c>
-      <c r="C137" s="49" t="s">
+      <c r="C137" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D137" s="49">
+      <c r="D137" s="34">
         <f t="shared" si="4"/>
         <v>236</v>
       </c>
-      <c r="E137" s="49">
+      <c r="E137" s="34">
         <v>294</v>
       </c>
-      <c r="F137" s="49" t="s">
+      <c r="F137" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="G137" s="50" t="s">
+      <c r="G137" s="35" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A2:A23"/>
     <mergeCell ref="A133:A137"/>
     <mergeCell ref="A112:A116"/>
     <mergeCell ref="A117:A121"/>
     <mergeCell ref="A122:A132"/>
-    <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="A46:A67"/>
     <mergeCell ref="A68:A89"/>
@@ -4204,7 +4183,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/モーション数値早見表.xlsx
+++ b/モーション数値早見表.xlsx
@@ -21,7 +21,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C123" authorId="0">
+    <comment ref="C145" authorId="0">
       <text>
         <r>
           <rPr>
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C125" authorId="0">
+    <comment ref="C147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C126" authorId="0">
+    <comment ref="C148" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C127" authorId="0">
+    <comment ref="C149" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="94">
   <si>
     <t>モーション内容</t>
     <phoneticPr fontId="1"/>
@@ -435,6 +435,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -822,6 +826,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,15 +851,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B96" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,7 +1202,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="36" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="7">
@@ -1221,7 +1225,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1242,7 +1246,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -1263,7 +1267,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -1284,7 +1288,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1305,7 +1309,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1326,7 +1330,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1347,7 +1351,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1368,7 +1372,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1389,7 +1393,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1410,7 +1414,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1431,7 +1435,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="43"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1452,7 +1456,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1473,7 +1477,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1494,7 +1498,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1515,7 +1519,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1536,7 +1540,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1557,7 +1561,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1578,7 +1582,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1599,7 +1603,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -1620,7 +1624,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -1641,7 +1645,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -1662,7 +1666,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="42" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="12">
@@ -1685,7 +1689,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="40"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3">
         <v>1</v>
       </c>
@@ -1707,7 +1711,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3">
         <v>2</v>
       </c>
@@ -1729,7 +1733,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="40"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -1751,7 +1755,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="40"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3">
         <v>4</v>
       </c>
@@ -1773,7 +1777,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="40"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1795,7 +1799,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="40"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3">
         <v>6</v>
       </c>
@@ -1817,7 +1821,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="40"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3">
         <v>7</v>
       </c>
@@ -1839,7 +1843,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="40"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -1861,7 +1865,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="40"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3">
         <v>9</v>
       </c>
@@ -1883,7 +1887,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="40"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="3">
         <v>10</v>
       </c>
@@ -1905,7 +1909,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="40"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="3">
         <v>11</v>
       </c>
@@ -1927,7 +1931,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="40"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3">
         <v>12</v>
       </c>
@@ -1949,7 +1953,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37" s="40"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="3">
         <v>13</v>
       </c>
@@ -1971,7 +1975,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38" s="40"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="3">
         <v>14</v>
       </c>
@@ -1993,7 +1997,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39" s="40"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="3">
         <v>15</v>
       </c>
@@ -2015,7 +2019,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="3">
         <v>16</v>
       </c>
@@ -2037,7 +2041,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="3">
         <v>17</v>
       </c>
@@ -2059,7 +2063,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="40"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="3">
         <v>18</v>
       </c>
@@ -2081,7 +2085,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="40"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="3">
         <v>19</v>
       </c>
@@ -2103,7 +2107,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44" s="40"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="3">
         <v>20</v>
       </c>
@@ -2125,7 +2129,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="41"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="15">
         <v>21</v>
       </c>
@@ -2147,7 +2151,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B46" s="17">
@@ -2170,7 +2174,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="7">
         <v>1</v>
       </c>
@@ -2192,7 +2196,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="7">
         <v>2</v>
       </c>
@@ -2214,7 +2218,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="7">
         <v>3</v>
       </c>
@@ -2236,7 +2240,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="7">
         <v>4</v>
       </c>
@@ -2258,7 +2262,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="7">
         <v>5</v>
       </c>
@@ -2280,7 +2284,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="7">
         <v>6</v>
       </c>
@@ -2302,7 +2306,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
+      <c r="A53" s="37"/>
       <c r="B53" s="7">
         <v>7</v>
       </c>
@@ -2324,7 +2328,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="7">
         <v>8</v>
       </c>
@@ -2346,7 +2350,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="43"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="7">
         <v>9</v>
       </c>
@@ -2369,7 +2373,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="7">
         <v>10</v>
       </c>
@@ -2391,7 +2395,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="7">
         <v>11</v>
       </c>
@@ -2413,7 +2417,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="7">
         <v>12</v>
       </c>
@@ -2435,7 +2439,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59" s="43"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="7">
         <v>13</v>
       </c>
@@ -2457,7 +2461,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60" s="43"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="7">
         <v>14</v>
       </c>
@@ -2479,7 +2483,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="7">
         <v>15</v>
       </c>
@@ -2501,7 +2505,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62" s="43"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="7">
         <v>16</v>
       </c>
@@ -2523,7 +2527,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63" s="43"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="7">
         <v>17</v>
       </c>
@@ -2545,7 +2549,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="7">
         <v>18</v>
       </c>
@@ -2567,7 +2571,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="7">
         <v>19</v>
       </c>
@@ -2589,7 +2593,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="43"/>
+      <c r="A66" s="37"/>
       <c r="B66" s="7">
         <v>20</v>
       </c>
@@ -2611,7 +2615,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="19">
         <v>21</v>
       </c>
@@ -3118,7 +3122,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A90" s="42" t="s">
+      <c r="A90" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B90" s="17">
@@ -3141,7 +3145,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
+      <c r="A91" s="37"/>
       <c r="B91" s="2">
         <v>1</v>
       </c>
@@ -3163,7 +3167,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
+      <c r="A92" s="37"/>
       <c r="B92" s="2">
         <v>2</v>
       </c>
@@ -3185,7 +3189,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A93" s="43"/>
+      <c r="A93" s="37"/>
       <c r="B93" s="2">
         <v>3</v>
       </c>
@@ -3207,7 +3211,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A94" s="43"/>
+      <c r="A94" s="37"/>
       <c r="B94" s="2">
         <v>4</v>
       </c>
@@ -3229,7 +3233,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A95" s="43"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="2">
         <v>5</v>
       </c>
@@ -3251,7 +3255,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A96" s="43"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="2">
         <v>6</v>
       </c>
@@ -3273,7 +3277,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
+      <c r="A97" s="37"/>
       <c r="B97" s="2">
         <v>7</v>
       </c>
@@ -3295,7 +3299,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A98" s="43"/>
+      <c r="A98" s="37"/>
       <c r="B98" s="2">
         <v>8</v>
       </c>
@@ -3317,7 +3321,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A99" s="43"/>
+      <c r="A99" s="37"/>
       <c r="B99" s="2">
         <v>9</v>
       </c>
@@ -3339,7 +3343,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="43"/>
+      <c r="A100" s="37"/>
       <c r="B100" s="2">
         <v>10</v>
       </c>
@@ -3361,7 +3365,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="43"/>
+      <c r="A101" s="37"/>
       <c r="B101" s="2">
         <v>11</v>
       </c>
@@ -3383,7 +3387,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="43"/>
+      <c r="A102" s="37"/>
       <c r="B102" s="2">
         <v>12</v>
       </c>
@@ -3405,7 +3409,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="43"/>
+      <c r="A103" s="37"/>
       <c r="B103" s="2">
         <v>13</v>
       </c>
@@ -3427,7 +3431,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="43"/>
+      <c r="A104" s="37"/>
       <c r="B104" s="2">
         <v>14</v>
       </c>
@@ -3449,7 +3453,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="43"/>
+      <c r="A105" s="37"/>
       <c r="B105" s="2">
         <v>15</v>
       </c>
@@ -3471,7 +3475,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="43"/>
+      <c r="A106" s="37"/>
       <c r="B106" s="2">
         <v>16</v>
       </c>
@@ -3493,7 +3497,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="43"/>
+      <c r="A107" s="37"/>
       <c r="B107" s="2">
         <v>17</v>
       </c>
@@ -3515,7 +3519,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="43"/>
+      <c r="A108" s="37"/>
       <c r="B108" s="2">
         <v>18</v>
       </c>
@@ -3537,7 +3541,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="43"/>
+      <c r="A109" s="37"/>
       <c r="B109" s="2">
         <v>19</v>
       </c>
@@ -3559,7 +3563,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="43"/>
+      <c r="A110" s="37"/>
       <c r="B110" s="2">
         <v>20</v>
       </c>
@@ -3581,7 +3585,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="43"/>
+      <c r="A111" s="37"/>
       <c r="B111" s="22">
         <v>21</v>
       </c>
@@ -3604,582 +3608,1068 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B112" s="26">
+        <v>93</v>
+      </c>
+      <c r="B112" s="17">
         <v>0</v>
       </c>
-      <c r="C112" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="26">
+      <c r="C112" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="17">
         <v>0</v>
       </c>
-      <c r="E112" s="26">
-        <v>78</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G112" s="27" t="s">
-        <v>69</v>
+      <c r="E112" s="12">
+        <v>58</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A113" s="37"/>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D113" s="1">
-        <v>79</v>
-      </c>
-      <c r="E113" s="1">
-        <v>137</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G113" s="28" t="s">
-        <v>68</v>
+      <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="2">
+        <f>E112+1</f>
+        <v>59</v>
+      </c>
+      <c r="E113" s="3">
+        <v>87</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A114" s="37"/>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <v>2</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D114" s="1">
-        <v>138</v>
-      </c>
-      <c r="E114" s="1">
-        <v>176</v>
-      </c>
-      <c r="F114" s="1">
-        <v>151</v>
-      </c>
-      <c r="G114" s="28">
-        <v>158</v>
+      <c r="C114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" ref="D114:D133" si="4">E113+1</f>
+        <v>88</v>
+      </c>
+      <c r="E114" s="3">
+        <v>126</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A115" s="37"/>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <v>3</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D115" s="1">
-        <v>177</v>
-      </c>
-      <c r="E115" s="1">
-        <v>255</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G115" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="38"/>
-      <c r="B116" s="19">
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="E115" s="3">
+        <v>165</v>
+      </c>
+      <c r="F115" s="2">
+        <v>148</v>
+      </c>
+      <c r="G115" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A116" s="37"/>
+      <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C116" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D116" s="19">
-        <v>256</v>
-      </c>
-      <c r="E116" s="19">
-        <v>284</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G116" s="20" t="s">
-        <v>68</v>
+      <c r="C116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="E116" s="3">
+        <v>204</v>
+      </c>
+      <c r="F116" s="2">
+        <v>187</v>
+      </c>
+      <c r="G116" s="4">
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A117" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B117" s="26">
-        <v>0</v>
-      </c>
-      <c r="C117" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="26">
-        <v>0</v>
-      </c>
-      <c r="E117" s="26">
-        <v>150</v>
-      </c>
-      <c r="F117" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G117" s="27" t="s">
-        <v>70</v>
+      <c r="A117" s="37"/>
+      <c r="B117" s="2">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="4"/>
+        <v>205</v>
+      </c>
+      <c r="E117" s="3">
+        <v>263</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A118" s="37"/>
-      <c r="B118" s="1">
-        <v>1</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118" s="1">
-        <v>151</v>
-      </c>
-      <c r="E118" s="1">
-        <v>187</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G118" s="28" t="s">
-        <v>68</v>
+      <c r="B118" s="2">
+        <v>6</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="E118" s="3">
+        <v>292</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A119" s="37"/>
-      <c r="B119" s="1">
-        <v>2</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D119" s="1">
-        <v>188</v>
-      </c>
-      <c r="E119" s="1">
-        <v>248</v>
-      </c>
-      <c r="F119" s="1">
-        <v>200</v>
-      </c>
-      <c r="G119" s="28">
-        <v>217</v>
+      <c r="B119" s="2">
+        <v>7</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="E119" s="3">
+        <v>321</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A120" s="37"/>
-      <c r="B120" s="1">
-        <v>3</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D120" s="1">
-        <v>249</v>
-      </c>
-      <c r="E120" s="1">
-        <v>338</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G120" s="28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="38"/>
-      <c r="B121" s="19">
-        <v>4</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D121" s="19">
-        <v>339</v>
-      </c>
-      <c r="E121" s="19">
-        <v>379</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G121" s="20" t="s">
-        <v>68</v>
+      <c r="B120" s="2">
+        <v>8</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="4"/>
+        <v>322</v>
+      </c>
+      <c r="E120" s="3">
+        <v>360</v>
+      </c>
+      <c r="F120" s="2">
+        <v>344</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A121" s="37"/>
+      <c r="B121" s="2">
+        <v>9</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="4"/>
+        <v>361</v>
+      </c>
+      <c r="E121" s="3">
+        <v>409</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A122" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B122" s="26">
-        <v>0</v>
-      </c>
-      <c r="C122" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="26">
-        <v>0</v>
-      </c>
-      <c r="E122" s="26">
-        <v>120</v>
-      </c>
-      <c r="F122" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G122" s="27" t="s">
-        <v>70</v>
+      <c r="A122" s="37"/>
+      <c r="B122" s="2">
+        <v>10</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="E122" s="3">
+        <v>438</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A123" s="37"/>
-      <c r="B123" s="1">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D123" s="1">
-        <v>121</v>
-      </c>
-      <c r="E123" s="1">
-        <v>191</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G123" s="28" t="s">
-        <v>68</v>
+      <c r="B123" s="2">
+        <v>11</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="4"/>
+        <v>439</v>
+      </c>
+      <c r="E123" s="3">
+        <v>497</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A124" s="37"/>
-      <c r="B124" s="1">
-        <v>2</v>
+      <c r="B124" s="2">
+        <v>12</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" s="1">
-        <v>192</v>
-      </c>
-      <c r="E124" s="1">
-        <v>312</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G124" s="28" t="s">
-        <v>68</v>
+        <v>32</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="4"/>
+        <v>498</v>
+      </c>
+      <c r="E124" s="3">
+        <v>526</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A125" s="37"/>
-      <c r="B125" s="1">
-        <v>3</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D125" s="1">
-        <v>313</v>
-      </c>
-      <c r="E125" s="1">
-        <v>423</v>
-      </c>
-      <c r="F125" s="1">
-        <v>348</v>
-      </c>
-      <c r="G125" s="28">
-        <v>375</v>
+      <c r="B125" s="2">
+        <v>13</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="4"/>
+        <v>527</v>
+      </c>
+      <c r="E125" s="3">
+        <v>585</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A126" s="37"/>
-      <c r="B126" s="1">
-        <v>4</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D126" s="1">
-        <v>424</v>
-      </c>
-      <c r="E126" s="1">
-        <v>514</v>
-      </c>
-      <c r="F126" s="1">
-        <v>440</v>
-      </c>
-      <c r="G126" s="28">
-        <v>500</v>
+      <c r="B126" s="2">
+        <v>14</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="4"/>
+        <v>586</v>
+      </c>
+      <c r="E126" s="3">
+        <v>614</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A127" s="37"/>
-      <c r="B127" s="1">
-        <v>5</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D127" s="1">
-        <v>515</v>
-      </c>
-      <c r="E127" s="1">
-        <v>575</v>
-      </c>
-      <c r="F127" s="1">
-        <v>530</v>
-      </c>
-      <c r="G127" s="28">
-        <v>575</v>
+      <c r="B127" s="2">
+        <v>15</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="4"/>
+        <v>615</v>
+      </c>
+      <c r="E127" s="3">
+        <v>673</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A128" s="37"/>
-      <c r="B128" s="1">
-        <v>6</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D128" s="1">
-        <v>576</v>
-      </c>
-      <c r="E128" s="1">
-        <v>614</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G128" s="28" t="s">
-        <v>68</v>
+      <c r="B128" s="2">
+        <v>16</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="4"/>
+        <v>674</v>
+      </c>
+      <c r="E128" s="3">
+        <v>732</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A129" s="37"/>
-      <c r="B129" s="1">
-        <v>7</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D129" s="1">
-        <v>615</v>
-      </c>
-      <c r="E129" s="1">
-        <v>765</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G129" s="28" t="s">
-        <v>68</v>
+      <c r="B129" s="2">
+        <v>17</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="4"/>
+        <v>733</v>
+      </c>
+      <c r="E129" s="3">
+        <v>761</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A130" s="37"/>
-      <c r="B130" s="1">
-        <v>8</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D130" s="1">
-        <v>766</v>
-      </c>
-      <c r="E130" s="1">
-        <v>968</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G130" s="28" t="s">
-        <v>68</v>
+      <c r="B130" s="2">
+        <v>18</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="4"/>
+        <v>762</v>
+      </c>
+      <c r="E130" s="3">
+        <v>820</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A131" s="37"/>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
+        <v>19</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" s="2">
+        <f t="shared" si="4"/>
+        <v>821</v>
+      </c>
+      <c r="E131" s="3">
+        <v>879</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A132" s="37"/>
+      <c r="B132" s="2">
+        <v>20</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="2">
+        <f t="shared" si="4"/>
+        <v>880</v>
+      </c>
+      <c r="E132" s="3">
+        <v>938</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="37"/>
+      <c r="B133" s="22">
+        <v>21</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="22">
+        <f t="shared" si="4"/>
+        <v>939</v>
+      </c>
+      <c r="E133" s="23">
+        <v>977</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A134" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" s="26">
+        <v>0</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="26">
+        <v>0</v>
+      </c>
+      <c r="E134" s="26">
+        <v>78</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A135" s="40"/>
+      <c r="B135" s="1">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="1">
+        <v>79</v>
+      </c>
+      <c r="E135" s="1">
+        <v>137</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G135" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A136" s="40"/>
+      <c r="B136" s="1">
+        <v>2</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" s="1">
+        <v>138</v>
+      </c>
+      <c r="E136" s="1">
+        <v>176</v>
+      </c>
+      <c r="F136" s="1">
+        <v>151</v>
+      </c>
+      <c r="G136" s="28">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A137" s="40"/>
+      <c r="B137" s="1">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D137" s="1">
+        <v>177</v>
+      </c>
+      <c r="E137" s="1">
+        <v>255</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="41"/>
+      <c r="B138" s="19">
+        <v>4</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D138" s="19">
+        <v>256</v>
+      </c>
+      <c r="E138" s="19">
+        <v>284</v>
+      </c>
+      <c r="F138" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G138" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A139" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B139" s="26">
+        <v>0</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="26">
+        <v>0</v>
+      </c>
+      <c r="E139" s="26">
+        <v>150</v>
+      </c>
+      <c r="F139" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G139" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A140" s="40"/>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D140" s="1">
+        <v>151</v>
+      </c>
+      <c r="E140" s="1">
+        <v>187</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A141" s="40"/>
+      <c r="B141" s="1">
+        <v>2</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" s="1">
+        <v>188</v>
+      </c>
+      <c r="E141" s="1">
+        <v>248</v>
+      </c>
+      <c r="F141" s="1">
+        <v>200</v>
+      </c>
+      <c r="G141" s="28">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A142" s="40"/>
+      <c r="B142" s="1">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D142" s="1">
+        <v>249</v>
+      </c>
+      <c r="E142" s="1">
+        <v>338</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="41"/>
+      <c r="B143" s="19">
+        <v>4</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D143" s="19">
+        <v>339</v>
+      </c>
+      <c r="E143" s="19">
+        <v>379</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G143" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A144" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B144" s="26">
+        <v>0</v>
+      </c>
+      <c r="C144" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="26">
+        <v>0</v>
+      </c>
+      <c r="E144" s="26">
+        <v>120</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G144" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A145" s="40"/>
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D145" s="1">
+        <v>121</v>
+      </c>
+      <c r="E145" s="1">
+        <v>191</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A146" s="40"/>
+      <c r="B146" s="1">
+        <v>2</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D146" s="1">
+        <v>192</v>
+      </c>
+      <c r="E146" s="1">
+        <v>312</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A147" s="40"/>
+      <c r="B147" s="1">
+        <v>3</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D147" s="1">
+        <v>313</v>
+      </c>
+      <c r="E147" s="1">
+        <v>423</v>
+      </c>
+      <c r="F147" s="1">
+        <v>348</v>
+      </c>
+      <c r="G147" s="28">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A148" s="40"/>
+      <c r="B148" s="1">
+        <v>4</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D148" s="1">
+        <v>424</v>
+      </c>
+      <c r="E148" s="1">
+        <v>514</v>
+      </c>
+      <c r="F148" s="1">
+        <v>440</v>
+      </c>
+      <c r="G148" s="28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A149" s="40"/>
+      <c r="B149" s="1">
+        <v>5</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="1">
+        <v>515</v>
+      </c>
+      <c r="E149" s="1">
+        <v>575</v>
+      </c>
+      <c r="F149" s="1">
+        <v>530</v>
+      </c>
+      <c r="G149" s="28">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A150" s="40"/>
+      <c r="B150" s="1">
+        <v>6</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150" s="1">
+        <v>576</v>
+      </c>
+      <c r="E150" s="1">
+        <v>614</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A151" s="40"/>
+      <c r="B151" s="1">
+        <v>7</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D151" s="1">
+        <v>615</v>
+      </c>
+      <c r="E151" s="1">
+        <v>765</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G151" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A152" s="40"/>
+      <c r="B152" s="1">
+        <v>8</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D152" s="1">
+        <v>766</v>
+      </c>
+      <c r="E152" s="1">
+        <v>968</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G152" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A153" s="40"/>
+      <c r="B153" s="1">
         <v>9</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D153" s="1">
         <v>969</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E153" s="1">
         <v>1059</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G131" s="28" t="s">
+      <c r="G153" s="28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="38"/>
-      <c r="B132" s="19">
+    <row r="154" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="41"/>
+      <c r="B154" s="19">
         <v>10</v>
       </c>
-      <c r="C132" s="19" t="s">
+      <c r="C154" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D132" s="19">
+      <c r="D154" s="19">
         <v>1060</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E154" s="19">
         <v>1180</v>
       </c>
-      <c r="F132" s="19" t="s">
+      <c r="F154" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G132" s="20" t="s">
+      <c r="G154" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="36" t="s">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A155" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B133" s="30">
+      <c r="B155" s="30">
         <v>0</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C155" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D133" s="30">
+      <c r="D155" s="30">
         <v>0</v>
       </c>
-      <c r="E133" s="30">
+      <c r="E155" s="30">
         <v>58</v>
       </c>
-      <c r="F133" s="30" t="s">
+      <c r="F155" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G133" s="31" t="s">
+      <c r="G155" s="31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="37"/>
-      <c r="B134" s="32">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A156" s="40"/>
+      <c r="B156" s="32">
         <v>1</v>
       </c>
-      <c r="C134" s="32" t="s">
+      <c r="C156" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D134" s="32">
-        <f>E133+1</f>
+      <c r="D156" s="32">
+        <f>E155+1</f>
         <v>59</v>
       </c>
-      <c r="E134" s="32">
+      <c r="E156" s="32">
         <v>117</v>
       </c>
-      <c r="F134" s="32" t="s">
+      <c r="F156" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G156" s="33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="37"/>
-      <c r="B135" s="32">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A157" s="40"/>
+      <c r="B157" s="32">
         <v>2</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="C157" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D135" s="32">
-        <f t="shared" ref="D135:D137" si="4">E134+1</f>
+      <c r="D157" s="32">
+        <f t="shared" ref="D157:D159" si="5">E156+1</f>
         <v>118</v>
       </c>
-      <c r="E135" s="32">
+      <c r="E157" s="32">
         <v>176</v>
       </c>
-      <c r="F135" s="32">
+      <c r="F157" s="32">
         <v>138</v>
       </c>
-      <c r="G135" s="33">
+      <c r="G157" s="33">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="37"/>
-      <c r="B136" s="32">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A158" s="40"/>
+      <c r="B158" s="32">
         <v>3</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="C158" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D136" s="32">
-        <f t="shared" si="4"/>
+      <c r="D158" s="32">
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
-      <c r="E136" s="32">
+      <c r="E158" s="32">
         <v>235</v>
       </c>
-      <c r="F136" s="32">
+      <c r="F158" s="32">
         <v>200</v>
       </c>
-      <c r="G136" s="33">
+      <c r="G158" s="33">
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="38"/>
-      <c r="B137" s="34">
+    <row r="159" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="41"/>
+      <c r="B159" s="34">
         <v>4</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C159" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D137" s="34">
-        <f t="shared" si="4"/>
+      <c r="D159" s="34">
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
-      <c r="E137" s="34">
+      <c r="E159" s="34">
         <v>294</v>
       </c>
-      <c r="F137" s="34" t="s">
+      <c r="F159" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="G137" s="35" t="s">
+      <c r="G159" s="35" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="25"/>
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="25"/>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A132"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A154"/>
     <mergeCell ref="A24:A45"/>
     <mergeCell ref="A46:A67"/>
     <mergeCell ref="A68:A89"/>
     <mergeCell ref="A90:A111"/>
+    <mergeCell ref="A112:A133"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
